--- a/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,19 +635,19 @@
         <v>1.000186219523844</v>
       </c>
       <c r="F3">
+        <v>0.9992551188448509</v>
+      </c>
+      <c r="G3">
         <v>1.000186219523844</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.000186219523844</v>
+      </c>
+      <c r="I3">
         <v>1.000496588078894</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.9995903150010274</v>
-      </c>
-      <c r="I3">
-        <v>1.000186219523844</v>
-      </c>
-      <c r="J3">
-        <v>0.9992551188448509</v>
       </c>
       <c r="K3">
         <v>1.000186219523844</v>
@@ -788,7 +680,7 @@
         <v>0.999983446749384</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -805,19 +697,19 @@
         <v>1.000359494649805</v>
       </c>
       <c r="F4">
+        <v>0.9985620152088167</v>
+      </c>
+      <c r="G4">
         <v>1.000359494649805</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.000359494649805</v>
+      </c>
+      <c r="I4">
         <v>1.000958657193137</v>
       </c>
-      <c r="H4">
-        <v>0.9992091083749847</v>
-      </c>
-      <c r="I4">
-        <v>1.000359494649805</v>
-      </c>
       <c r="J4">
-        <v>0.9985620152088167</v>
+        <v>0.9992091083749851</v>
       </c>
       <c r="K4">
         <v>1.000359494649805</v>
@@ -832,7 +724,7 @@
         <v>0.9994607549293111</v>
       </c>
       <c r="O4">
-        <v>0.9993768727445356</v>
+        <v>0.9993768727445357</v>
       </c>
       <c r="P4">
         <v>0.9997603348361425</v>
@@ -847,10 +739,10 @@
         <v>0.9999101247895581</v>
       </c>
       <c r="T4">
-        <v>0.9999680441210589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999680441210591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>1.000688928348568</v>
       </c>
       <c r="D5">
-        <v>0.9972442770850865</v>
+        <v>0.9972442770850863</v>
       </c>
       <c r="E5">
         <v>1.000688928348568</v>
       </c>
       <c r="F5">
+        <v>0.9972442770850863</v>
+      </c>
+      <c r="G5">
         <v>1.000688928348568</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>1.000688928348568</v>
+      </c>
+      <c r="I5">
         <v>1.001837149048359</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.998484351190449</v>
-      </c>
-      <c r="I5">
-        <v>1.000688928348568</v>
-      </c>
-      <c r="J5">
-        <v>0.9972442770850865</v>
       </c>
       <c r="K5">
         <v>1.000688928348568</v>
@@ -912,7 +804,7 @@
         <v>0.999938760394933</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -929,19 +821,19 @@
         <v>1.00101044000263</v>
       </c>
       <c r="F6">
+        <v>0.9959582394373682</v>
+      </c>
+      <c r="G6">
         <v>1.00101044000263</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1.00101044000263</v>
+      </c>
+      <c r="I6">
         <v>1.002694512966136</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.9977770326001525</v>
-      </c>
-      <c r="I6">
-        <v>1.00101044000263</v>
-      </c>
-      <c r="J6">
-        <v>0.9959582394373682</v>
       </c>
       <c r="K6">
         <v>1.00101044000263</v>
@@ -974,7 +866,7 @@
         <v>0.999910184168591</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>1.000013275794241</v>
       </c>
       <c r="D7">
-        <v>0.9999468950444056</v>
+        <v>0.9999468950444055</v>
       </c>
       <c r="E7">
         <v>1.000013275794241</v>
       </c>
       <c r="F7">
+        <v>0.9999468950444055</v>
+      </c>
+      <c r="G7">
         <v>1.000013275794241</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>1.000013275794241</v>
+      </c>
+      <c r="I7">
         <v>1.000035403618783</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.9999707918808989</v>
-      </c>
-      <c r="I7">
-        <v>1.000013275794241</v>
-      </c>
-      <c r="J7">
-        <v>0.9999468950444056</v>
       </c>
       <c r="K7">
         <v>1.000013275794241</v>
@@ -1036,7 +928,7 @@
         <v>0.9999988196544685</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1053,19 +945,19 @@
         <v>1.000033838354057</v>
       </c>
       <c r="F8">
+        <v>0.9998646445687531</v>
+      </c>
+      <c r="G8">
         <v>1.000033838354057</v>
       </c>
-      <c r="G8">
-        <v>1.000090236995334</v>
-      </c>
       <c r="H8">
-        <v>0.9999255542012788</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="I8">
-        <v>1.000033838354057</v>
+        <v>1.000090236995333</v>
       </c>
       <c r="J8">
-        <v>0.9998646445687531</v>
+        <v>0.9999255542012787</v>
       </c>
       <c r="K8">
         <v>1.000033838354057</v>
@@ -1098,7 +990,7 @@
         <v>0.9999969918045896</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1115,19 +1007,19 @@
         <v>1.000047378675377</v>
       </c>
       <c r="F9">
+        <v>0.999810482714136</v>
+      </c>
+      <c r="G9">
         <v>1.000047378675377</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>1.000047378675377</v>
+      </c>
+      <c r="I9">
         <v>1.000126345384839</v>
       </c>
-      <c r="H9">
-        <v>0.9998957656465444</v>
-      </c>
-      <c r="I9">
-        <v>1.000047378675377</v>
-      </c>
       <c r="J9">
-        <v>0.999810482714136</v>
+        <v>0.9998957656465441</v>
       </c>
       <c r="K9">
         <v>1.000047378675377</v>
@@ -1142,7 +1034,7 @@
         <v>0.9999289306947565</v>
       </c>
       <c r="O9">
-        <v>0.9999178756786858</v>
+        <v>0.9999178756786856</v>
       </c>
       <c r="P9">
         <v>0.9999684133549632</v>
@@ -1157,10 +1049,10 @@
         <v>0.9999881546850666</v>
       </c>
       <c r="T9">
-        <v>0.999995788295275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999957882952749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1177,19 +1069,19 @@
         <v>1.000102161755974</v>
       </c>
       <c r="F10">
+        <v>0.9995913553296635</v>
+      </c>
+      <c r="G10">
         <v>1.000102161755974</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>1.000102161755974</v>
+      </c>
+      <c r="I10">
         <v>1.000272430465849</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.9997752447810944</v>
-      </c>
-      <c r="I10">
-        <v>1.000102161755974</v>
-      </c>
-      <c r="J10">
-        <v>0.9995913553296635</v>
       </c>
       <c r="K10">
         <v>1.000102161755974</v>
@@ -1222,7 +1114,7 @@
         <v>0.9999909193074216</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1239,19 +1131,19 @@
         <v>1.000169461465969</v>
       </c>
       <c r="F11">
+        <v>0.9993221533427838</v>
+      </c>
+      <c r="G11">
         <v>1.000169461465969</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="I11">
         <v>1.000451896201525</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.9996271839543713</v>
-      </c>
-      <c r="I11">
-        <v>1.000169461465969</v>
-      </c>
-      <c r="J11">
-        <v>0.9993221533427838</v>
       </c>
       <c r="K11">
         <v>1.000169461465969</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999849363160979</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1301,19 +1193,19 @@
         <v>0.9984980511806822</v>
       </c>
       <c r="F12">
+        <v>1.006007798933863</v>
+      </c>
+      <c r="G12">
         <v>0.9984980511806822</v>
       </c>
-      <c r="G12">
-        <v>0.9959947961708795</v>
-      </c>
       <c r="H12">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="I12">
+        <v>0.9959947961708796</v>
+      </c>
+      <c r="J12">
         <v>1.003304289263805</v>
-      </c>
-      <c r="I12">
-        <v>0.9984980511806822</v>
-      </c>
-      <c r="J12">
-        <v>1.006007798933863</v>
       </c>
       <c r="K12">
         <v>0.9984980511806822</v>
@@ -1328,25 +1220,25 @@
         <v>1.002252925057273</v>
       </c>
       <c r="O12">
-        <v>1.002603379792783</v>
+        <v>1.002603379792784</v>
       </c>
       <c r="P12">
-        <v>1.001001300431742</v>
+        <v>1.001001300431743</v>
       </c>
       <c r="Q12">
-        <v>1.001001300431742</v>
+        <v>1.001001300431743</v>
       </c>
       <c r="R12">
-        <v>1.000375488118977</v>
+        <v>1.000375488118978</v>
       </c>
       <c r="S12">
-        <v>1.000375488118977</v>
+        <v>1.000375488118978</v>
       </c>
       <c r="T12">
-        <v>1.000133506318432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000133506318433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1363,19 +1255,19 @@
         <v>0.9996122202395928</v>
       </c>
       <c r="F13">
+        <v>1.001551139753336</v>
+      </c>
+      <c r="G13">
         <v>0.9996122202395928</v>
       </c>
-      <c r="G13">
-        <v>0.9989659102351676</v>
-      </c>
       <c r="H13">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="I13">
+        <v>0.9989659102351678</v>
+      </c>
+      <c r="J13">
         <v>1.000853126423775</v>
-      </c>
-      <c r="I13">
-        <v>0.9996122202395928</v>
-      </c>
-      <c r="J13">
-        <v>1.001551139753336</v>
       </c>
       <c r="K13">
         <v>0.9996122202395928</v>
@@ -1408,7 +1300,7 @@
         <v>1.000034472855176</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1425,19 +1317,19 @@
         <v>0.9984981356332555</v>
       </c>
       <c r="F14">
+        <v>1.006007490867104</v>
+      </c>
+      <c r="G14">
         <v>0.9984981356332555</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="I14">
         <v>0.9959950108599505</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.00330411473018</v>
-      </c>
-      <c r="I14">
-        <v>0.9984981356332555</v>
-      </c>
-      <c r="J14">
-        <v>1.006007490867104</v>
       </c>
       <c r="K14">
         <v>0.9984981356332555</v>
@@ -1470,7 +1362,7 @@
         <v>1.000133503892833</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1487,19 +1379,19 @@
         <v>0.9996122291325652</v>
       </c>
       <c r="F15">
+        <v>1.001551060553058</v>
+      </c>
+      <c r="G15">
         <v>0.9996122291325652</v>
       </c>
-      <c r="G15">
-        <v>0.9989659596189686</v>
-      </c>
       <c r="H15">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="I15">
+        <v>0.9989659596189684</v>
+      </c>
+      <c r="J15">
         <v>1.000853086972874</v>
-      </c>
-      <c r="I15">
-        <v>0.9996122291325652</v>
-      </c>
-      <c r="J15">
-        <v>1.001551060553058</v>
       </c>
       <c r="K15">
         <v>0.9996122291325652</v>
@@ -1532,7 +1424,7 @@
         <v>1.0000344657571</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000768512052</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="D16">
-        <v>0.9999969240886029</v>
+        <v>0.9854710894363202</v>
       </c>
       <c r="E16">
-        <v>1.000000768512052</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="F16">
-        <v>1.000000768512052</v>
+        <v>0.9854710894363202</v>
       </c>
       <c r="G16">
-        <v>1.000002050868922</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="H16">
-        <v>0.9999983078362267</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="I16">
-        <v>1.000000768512052</v>
+        <v>1.009685946805441</v>
       </c>
       <c r="J16">
-        <v>0.9999969240886029</v>
+        <v>0.9920090990811403</v>
       </c>
       <c r="K16">
-        <v>1.000000768512052</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="L16">
-        <v>1.000000768512052</v>
+        <v>1.003632224036981</v>
       </c>
       <c r="M16">
-        <v>0.9999988463003275</v>
+        <v>0.9945516567366508</v>
       </c>
       <c r="N16">
-        <v>0.9999988463003275</v>
+        <v>0.9945516567366508</v>
       </c>
       <c r="O16">
-        <v>0.999998666812294</v>
+        <v>0.9937041375181472</v>
       </c>
       <c r="P16">
-        <v>0.9999994870375691</v>
+        <v>0.9975785125034277</v>
       </c>
       <c r="Q16">
-        <v>0.9999994870375691</v>
+        <v>0.9975785125034277</v>
       </c>
       <c r="R16">
-        <v>0.9999998074061899</v>
+        <v>0.9990919403868161</v>
       </c>
       <c r="S16">
-        <v>0.9999998074061899</v>
+        <v>0.9990919403868161</v>
       </c>
       <c r="T16">
-        <v>0.999999931388318</v>
+        <v>0.9996771345723077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284539304</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="D17">
-        <v>0.9999348587541259</v>
+        <v>0.9881110580767984</v>
       </c>
       <c r="E17">
-        <v>1.000016284539304</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="F17">
-        <v>1.000016284539304</v>
+        <v>0.9881110580767984</v>
       </c>
       <c r="G17">
-        <v>1.000043427651147</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="H17">
-        <v>0.9999641717090894</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="I17">
-        <v>1.000016284539304</v>
+        <v>1.007925965600576</v>
       </c>
       <c r="J17">
-        <v>0.9999348587541259</v>
+        <v>0.9934610817393195</v>
       </c>
       <c r="K17">
-        <v>1.000016284539304</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="L17">
-        <v>1.000016284539304</v>
+        <v>1.002972234468734</v>
       </c>
       <c r="M17">
-        <v>0.999975571646715</v>
+        <v>0.9955416462727662</v>
       </c>
       <c r="N17">
-        <v>0.999975571646715</v>
+        <v>0.9955416462727662</v>
       </c>
       <c r="O17">
-        <v>0.9999717716675064</v>
+        <v>0.9948481247616172</v>
       </c>
       <c r="P17">
-        <v>0.9999891426109114</v>
+        <v>0.9980185090047554</v>
       </c>
       <c r="Q17">
-        <v>0.9999891426109114</v>
+        <v>0.9980185090047554</v>
       </c>
       <c r="R17">
-        <v>0.9999959280930096</v>
+        <v>0.9992569403707501</v>
       </c>
       <c r="S17">
-        <v>0.9999959280930096</v>
+        <v>0.9992569403707501</v>
       </c>
       <c r="T17">
-        <v>0.9999985519553792</v>
+        <v>0.9997358014704827</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334905025</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="D18">
-        <v>0.9997706596311844</v>
+        <v>0.9934194849595119</v>
       </c>
       <c r="E18">
-        <v>1.000057334905025</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="F18">
-        <v>1.000057334905025</v>
+        <v>0.9934194849595119</v>
       </c>
       <c r="G18">
-        <v>1.000152895557686</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="H18">
-        <v>0.9998738610466495</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="I18">
-        <v>1.000057334905025</v>
+        <v>1.004387007752333</v>
       </c>
       <c r="J18">
-        <v>0.9997706596311844</v>
+        <v>0.9963807164382749</v>
       </c>
       <c r="K18">
-        <v>1.000057334905025</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="L18">
-        <v>1.000057334905025</v>
+        <v>1.001645132917943</v>
       </c>
       <c r="M18">
-        <v>0.9999139972681046</v>
+        <v>0.9975323089387275</v>
       </c>
       <c r="N18">
-        <v>0.9999139972681046</v>
+        <v>0.9975323089387275</v>
       </c>
       <c r="O18">
-        <v>0.9999006185276196</v>
+        <v>0.99714844477191</v>
       </c>
       <c r="P18">
-        <v>0.9999617764804114</v>
+        <v>0.9989032502651326</v>
       </c>
       <c r="Q18">
-        <v>0.9999617764804114</v>
+        <v>0.9989032502651326</v>
       </c>
       <c r="R18">
-        <v>0.9999856660865647</v>
+        <v>0.9995887209283352</v>
       </c>
       <c r="S18">
-        <v>0.9999856660865647</v>
+        <v>0.9995887209283352</v>
       </c>
       <c r="T18">
-        <v>0.9999949034917658</v>
+        <v>0.9998537679839914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="D19">
+        <v>0.9928166108433267</v>
+      </c>
+      <c r="E19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="F19">
+        <v>0.9928166108433267</v>
+      </c>
+      <c r="G19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="H19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="I19">
+        <v>1.004788927645208</v>
+      </c>
+      <c r="J19">
+        <v>0.9960491322077251</v>
+      </c>
+      <c r="K19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="L19">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="M19">
+        <v>0.9973062323843742</v>
+      </c>
+      <c r="N19">
+        <v>0.9973062323843742</v>
+      </c>
+      <c r="O19">
+        <v>0.9968871989921578</v>
+      </c>
+      <c r="P19">
+        <v>0.9988027728980567</v>
+      </c>
+      <c r="Q19">
+        <v>0.9988027728980567</v>
+      </c>
+      <c r="R19">
+        <v>0.999551043154898</v>
+      </c>
+      <c r="S19">
+        <v>0.999551043154898</v>
+      </c>
+      <c r="T19">
+        <v>0.9998403720787542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="D20">
+        <v>0.999996924088603</v>
+      </c>
+      <c r="E20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="F20">
+        <v>0.999996924088603</v>
+      </c>
+      <c r="G20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="H20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="I20">
+        <v>1.000002050868922</v>
+      </c>
+      <c r="J20">
+        <v>0.9999983078362267</v>
+      </c>
+      <c r="K20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="L20">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988463003275</v>
+      </c>
+      <c r="N20">
+        <v>0.9999988463003275</v>
+      </c>
+      <c r="O20">
+        <v>0.999998666812294</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994870375691</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994870375691</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998074061899</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998074061899</v>
+      </c>
+      <c r="T20">
+        <v>0.999999931388318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="D21">
+        <v>0.9999348587541259</v>
+      </c>
+      <c r="E21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="F21">
+        <v>0.9999348587541259</v>
+      </c>
+      <c r="G21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="H21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="I21">
+        <v>1.000043427651147</v>
+      </c>
+      <c r="J21">
+        <v>0.9999641717090894</v>
+      </c>
+      <c r="K21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="L21">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="M21">
+        <v>0.999975571646715</v>
+      </c>
+      <c r="N21">
+        <v>0.999975571646715</v>
+      </c>
+      <c r="O21">
+        <v>0.9999717716675064</v>
+      </c>
+      <c r="P21">
+        <v>0.9999891426109114</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999891426109114</v>
+      </c>
+      <c r="R21">
+        <v>0.9999959280930096</v>
+      </c>
+      <c r="S21">
+        <v>0.9999959280930096</v>
+      </c>
+      <c r="T21">
+        <v>0.9999985519553792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="D22">
+        <v>0.9997706596311844</v>
+      </c>
+      <c r="E22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="F22">
+        <v>0.9997706596311844</v>
+      </c>
+      <c r="G22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="H22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="I22">
+        <v>1.000152895557686</v>
+      </c>
+      <c r="J22">
+        <v>0.9998738610466495</v>
+      </c>
+      <c r="K22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="L22">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="M22">
+        <v>0.9999139972681046</v>
+      </c>
+      <c r="N22">
+        <v>0.9999139972681046</v>
+      </c>
+      <c r="O22">
+        <v>0.9999006185276196</v>
+      </c>
+      <c r="P22">
+        <v>0.9999617764804114</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999617764804114</v>
+      </c>
+      <c r="R22">
+        <v>0.9999856660865647</v>
+      </c>
+      <c r="S22">
+        <v>0.9999856660865647</v>
+      </c>
+      <c r="T22">
+        <v>0.9999949034917658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000134319885843</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9994627189113763</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.000134319885843</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9994627189113763</v>
+      </c>
+      <c r="G23">
         <v>1.000134319885843</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>1.000134319885843</v>
+      </c>
+      <c r="I23">
         <v>1.00035818380463</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>0.9997044899509185</v>
       </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000134319885843</v>
       </c>
-      <c r="J19">
-        <v>0.9994627189113763</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000134319885843</v>
       </c>
-      <c r="L19">
-        <v>1.000134319885843</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9997985193986098</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9997985193986098</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9997671762493794</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999104528943542</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999104528943542</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999664196422264</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999664196422264</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999880587207425</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="D3">
-        <v>0.9992551188448509</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="E3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="F3">
-        <v>0.9992551188448509</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="G3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="H3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="I3">
-        <v>1.000496588078894</v>
+        <v>1.005195873162825</v>
       </c>
       <c r="J3">
-        <v>0.9995903150010274</v>
+        <v>0.9957134040634025</v>
       </c>
       <c r="K3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="L3">
-        <v>1.000186219523844</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="M3">
-        <v>0.9997206691843473</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="N3">
-        <v>0.9997206691843473</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="O3">
-        <v>0.9996772177899073</v>
+        <v>0.9966226837223844</v>
       </c>
       <c r="P3">
-        <v>0.9998758526308462</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="Q3">
-        <v>0.9998758526308462</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="R3">
-        <v>0.9999534443540956</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="S3">
-        <v>0.9999534443540956</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="T3">
-        <v>0.999983446749384</v>
+        <v>0.999826806480549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="D4">
-        <v>0.9985620152088167</v>
+        <v>0.9928683412914779</v>
       </c>
       <c r="E4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="F4">
-        <v>0.9985620152088167</v>
+        <v>0.9928683412914779</v>
       </c>
       <c r="G4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="H4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="I4">
-        <v>1.000958657193137</v>
+        <v>1.004754439083119</v>
       </c>
       <c r="J4">
-        <v>0.9992091083749851</v>
+        <v>0.9960775873416027</v>
       </c>
       <c r="K4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="L4">
-        <v>1.000359494649805</v>
+        <v>1.001782919118515</v>
       </c>
       <c r="M4">
-        <v>0.9994607549293111</v>
+        <v>0.9973256302049966</v>
       </c>
       <c r="N4">
-        <v>0.9994607549293111</v>
+        <v>0.9973256302049966</v>
       </c>
       <c r="O4">
-        <v>0.9993768727445357</v>
+        <v>0.9969096159171986</v>
       </c>
       <c r="P4">
-        <v>0.9997603348361425</v>
+        <v>0.9988113931761694</v>
       </c>
       <c r="Q4">
-        <v>0.9997603348361425</v>
+        <v>0.9988113931761694</v>
       </c>
       <c r="R4">
-        <v>0.9999101247895581</v>
+        <v>0.9995542746617558</v>
       </c>
       <c r="S4">
-        <v>0.9999101247895581</v>
+        <v>0.9995542746617558</v>
       </c>
       <c r="T4">
-        <v>0.9999680441210591</v>
+        <v>0.9998415208452909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="D5">
-        <v>0.9972442770850863</v>
+        <v>0.9909466088679233</v>
       </c>
       <c r="E5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="F5">
-        <v>0.9972442770850863</v>
+        <v>0.9909466088679233</v>
       </c>
       <c r="G5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="H5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="I5">
-        <v>1.001837149048359</v>
+        <v>1.006035589973046</v>
       </c>
       <c r="J5">
-        <v>0.998484351190449</v>
+        <v>0.995020634663073</v>
       </c>
       <c r="K5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="L5">
-        <v>1.000688928348568</v>
+        <v>1.002263354123988</v>
       </c>
       <c r="M5">
-        <v>0.9989666027168274</v>
+        <v>0.9966049814959558</v>
       </c>
       <c r="N5">
-        <v>0.9989666027168274</v>
+        <v>0.9966049814959558</v>
       </c>
       <c r="O5">
-        <v>0.9988058522080346</v>
+        <v>0.9960768658849949</v>
       </c>
       <c r="P5">
-        <v>0.999540711260741</v>
+        <v>0.9984911057053</v>
       </c>
       <c r="Q5">
-        <v>0.999540711260741</v>
+        <v>0.9984911057053</v>
       </c>
       <c r="R5">
-        <v>0.9998277655326977</v>
+        <v>0.9994341678099721</v>
       </c>
       <c r="S5">
-        <v>0.9998277655326977</v>
+        <v>0.9994341678099721</v>
       </c>
       <c r="T5">
-        <v>0.999938760394933</v>
+        <v>0.9997988159793344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="D6">
-        <v>0.9959582394373682</v>
+        <v>0.9897680719318179</v>
       </c>
       <c r="E6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="F6">
-        <v>0.9959582394373682</v>
+        <v>0.9897680719318179</v>
       </c>
       <c r="G6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="H6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="I6">
-        <v>1.002694512966136</v>
+        <v>1.006821287954546</v>
       </c>
       <c r="J6">
-        <v>0.9977770326001525</v>
+        <v>0.9943724363636356</v>
       </c>
       <c r="K6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="L6">
-        <v>1.00101044000263</v>
+        <v>1.002557986477272</v>
       </c>
       <c r="M6">
-        <v>0.9984843397199989</v>
+        <v>0.9961630292045451</v>
       </c>
       <c r="N6">
-        <v>0.9984843397199989</v>
+        <v>0.9961630292045451</v>
       </c>
       <c r="O6">
-        <v>0.9982485706800501</v>
+        <v>0.995566164924242</v>
       </c>
       <c r="P6">
-        <v>0.9993263731475426</v>
+        <v>0.9982946816287877</v>
       </c>
       <c r="Q6">
-        <v>0.9993263731475426</v>
+        <v>0.9982946816287877</v>
       </c>
       <c r="R6">
-        <v>0.9997473898613144</v>
+        <v>0.9993605078409089</v>
       </c>
       <c r="S6">
-        <v>0.9997473898613144</v>
+        <v>0.9993605078409089</v>
       </c>
       <c r="T6">
-        <v>0.999910184168591</v>
+        <v>0.9997726259469695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="D7">
-        <v>0.9999468950444055</v>
+        <v>0.995665566934909</v>
       </c>
       <c r="E7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="F7">
-        <v>0.9999468950444055</v>
+        <v>0.995665566934909</v>
       </c>
       <c r="G7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="H7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="I7">
-        <v>1.000035403618783</v>
+        <v>1.002889629049012</v>
       </c>
       <c r="J7">
-        <v>0.9999707918808989</v>
+        <v>0.9976160599706924</v>
       </c>
       <c r="K7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="L7">
-        <v>1.000013275794241</v>
+        <v>1.001083602396142</v>
       </c>
       <c r="M7">
-        <v>0.9999800854193233</v>
+        <v>0.9983745846655258</v>
       </c>
       <c r="N7">
-        <v>0.9999800854193233</v>
+        <v>0.9983745846655258</v>
       </c>
       <c r="O7">
-        <v>0.9999769875731818</v>
+        <v>0.9981217431005813</v>
       </c>
       <c r="P7">
-        <v>0.9999911488776293</v>
+        <v>0.9992775905757313</v>
       </c>
       <c r="Q7">
-        <v>0.9999911488776293</v>
+        <v>0.9992775905757313</v>
       </c>
       <c r="R7">
-        <v>0.9999966806067822</v>
+        <v>0.9997290935308341</v>
       </c>
       <c r="S7">
-        <v>0.9999966806067822</v>
+        <v>0.9997290935308341</v>
       </c>
       <c r="T7">
-        <v>0.9999988196544685</v>
+        <v>0.9999036771905067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="D8">
-        <v>0.9998646445687531</v>
+        <v>0.995493715611908</v>
       </c>
       <c r="E8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="F8">
-        <v>0.9998646445687531</v>
+        <v>0.995493715611908</v>
       </c>
       <c r="G8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="H8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="I8">
-        <v>1.000090236995333</v>
+        <v>1.003004196338207</v>
       </c>
       <c r="J8">
-        <v>0.9999255542012787</v>
+        <v>0.9975215417366059</v>
       </c>
       <c r="K8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="L8">
-        <v>1.000033838354057</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="M8">
-        <v>0.9999492414614053</v>
+        <v>0.9983101404897077</v>
       </c>
       <c r="N8">
-        <v>0.9999492414614053</v>
+        <v>0.9983101404897077</v>
       </c>
       <c r="O8">
-        <v>0.9999413457080298</v>
+        <v>0.9980472742386738</v>
       </c>
       <c r="P8">
-        <v>0.9999774404256226</v>
+        <v>0.9992489487823075</v>
       </c>
       <c r="Q8">
-        <v>0.9999774404256226</v>
+        <v>0.9992489487823075</v>
       </c>
       <c r="R8">
-        <v>0.9999915399077314</v>
+        <v>0.9997183529286076</v>
       </c>
       <c r="S8">
-        <v>0.9999915399077314</v>
+        <v>0.9997183529286076</v>
       </c>
       <c r="T8">
-        <v>0.9999969918045896</v>
+        <v>0.9998998582982073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="D9">
-        <v>0.999810482714136</v>
+        <v>0.995347043066668</v>
       </c>
       <c r="E9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="F9">
-        <v>0.999810482714136</v>
+        <v>0.995347043066668</v>
       </c>
       <c r="G9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="H9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="I9">
-        <v>1.000126345384839</v>
+        <v>1.003101977821949</v>
       </c>
       <c r="J9">
-        <v>0.9998957656465441</v>
+        <v>0.9974408718383729</v>
       </c>
       <c r="K9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="L9">
-        <v>1.000047378675377</v>
+        <v>1.001163233678422</v>
       </c>
       <c r="M9">
-        <v>0.9999289306947565</v>
+        <v>0.9982551383725449</v>
       </c>
       <c r="N9">
-        <v>0.9999289306947565</v>
+        <v>0.9982551383725449</v>
       </c>
       <c r="O9">
-        <v>0.9999178756786856</v>
+        <v>0.9979837161944877</v>
       </c>
       <c r="P9">
-        <v>0.9999684133549632</v>
+        <v>0.9992245034745038</v>
       </c>
       <c r="Q9">
-        <v>0.9999684133549632</v>
+        <v>0.9992245034745038</v>
       </c>
       <c r="R9">
-        <v>0.9999881546850666</v>
+        <v>0.9997091860254832</v>
       </c>
       <c r="S9">
-        <v>0.9999881546850666</v>
+        <v>0.9997091860254832</v>
       </c>
       <c r="T9">
-        <v>0.9999957882952749</v>
+        <v>0.9998965989603757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="D10">
-        <v>0.9995913553296635</v>
+        <v>0.9950003708865199</v>
       </c>
       <c r="E10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="F10">
-        <v>0.9995913553296635</v>
+        <v>0.9950003708865199</v>
       </c>
       <c r="G10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="H10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="I10">
-        <v>1.000272430465849</v>
+        <v>1.003333091888004</v>
       </c>
       <c r="J10">
-        <v>0.9997752447810944</v>
+        <v>0.9972502021424904</v>
       </c>
       <c r="K10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="L10">
-        <v>1.000102161755974</v>
+        <v>1.001249901764607</v>
       </c>
       <c r="M10">
-        <v>0.9998467585428186</v>
+        <v>0.9981251363255637</v>
       </c>
       <c r="N10">
-        <v>0.9998467585428186</v>
+        <v>0.9981251363255637</v>
       </c>
       <c r="O10">
-        <v>0.9998229206222439</v>
+        <v>0.9978334915978726</v>
       </c>
       <c r="P10">
-        <v>0.9999318929472037</v>
+        <v>0.9991667248052449</v>
       </c>
       <c r="Q10">
-        <v>0.9999318929472037</v>
+        <v>0.9991667248052449</v>
       </c>
       <c r="R10">
-        <v>0.9999744601493963</v>
+        <v>0.9996875190450856</v>
       </c>
       <c r="S10">
-        <v>0.9999744601493963</v>
+        <v>0.9996875190450856</v>
       </c>
       <c r="T10">
-        <v>0.9999909193074216</v>
+        <v>0.9998888950351396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="D11">
-        <v>0.9993221533427838</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="E11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="F11">
-        <v>0.9993221533427838</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="G11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="H11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="I11">
-        <v>1.000451896201525</v>
+        <v>1.000542192137744</v>
       </c>
       <c r="J11">
-        <v>0.9996271839543713</v>
+        <v>0.9995526916044192</v>
       </c>
       <c r="K11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="L11">
-        <v>1.000169461465969</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="M11">
-        <v>0.9997458074043765</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="N11">
-        <v>0.9997458074043765</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="O11">
-        <v>0.9997062662543748</v>
+        <v>0.9996475751132622</v>
       </c>
       <c r="P11">
-        <v>0.9998870254249074</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="Q11">
-        <v>0.9998870254249074</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="R11">
-        <v>0.9999576344351728</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="S11">
-        <v>0.9999576344351728</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="T11">
-        <v>0.9999849363160979</v>
+        <v>0.9999819265183637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="D12">
-        <v>1.006007798933863</v>
+        <v>0.9996113308968125</v>
       </c>
       <c r="E12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="F12">
-        <v>1.006007798933863</v>
+        <v>0.9996113308968125</v>
       </c>
       <c r="G12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="H12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="I12">
-        <v>0.9959947961708796</v>
+        <v>1.000259113292012</v>
       </c>
       <c r="J12">
-        <v>1.003304289263805</v>
+        <v>0.9997862315299836</v>
       </c>
       <c r="K12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="L12">
-        <v>0.9984980511806822</v>
+        <v>1.000097166665494</v>
       </c>
       <c r="M12">
-        <v>1.002252925057273</v>
+        <v>0.9998542487811533</v>
       </c>
       <c r="N12">
-        <v>1.002252925057273</v>
+        <v>0.9998542487811533</v>
       </c>
       <c r="O12">
-        <v>1.002603379792784</v>
+        <v>0.9998315763640967</v>
       </c>
       <c r="P12">
-        <v>1.001001300431743</v>
+        <v>0.9999352214092667</v>
       </c>
       <c r="Q12">
-        <v>1.001001300431743</v>
+        <v>0.9999352214092667</v>
       </c>
       <c r="R12">
-        <v>1.000375488118978</v>
+        <v>0.9999757077233236</v>
       </c>
       <c r="S12">
-        <v>1.000375488118978</v>
+        <v>0.9999757077233236</v>
       </c>
       <c r="T12">
-        <v>1.000133506318433</v>
+        <v>0.9999913626192151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="D13">
-        <v>1.001551139753336</v>
+        <v>0.9986905509729641</v>
       </c>
       <c r="E13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="F13">
-        <v>1.001551139753336</v>
+        <v>0.9986905509729641</v>
       </c>
       <c r="G13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="H13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="I13">
-        <v>0.9989659102351678</v>
+        <v>1.000872966880627</v>
       </c>
       <c r="J13">
-        <v>1.000853126423775</v>
+        <v>0.9992798027343779</v>
       </c>
       <c r="K13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="L13">
-        <v>0.9996122202395928</v>
+        <v>1.000327362423493</v>
       </c>
       <c r="M13">
-        <v>1.000581679996464</v>
+        <v>0.9995089566982287</v>
       </c>
       <c r="N13">
-        <v>1.000581679996464</v>
+        <v>0.9995089566982287</v>
       </c>
       <c r="O13">
-        <v>1.000672162138901</v>
+        <v>0.9994325720436118</v>
       </c>
       <c r="P13">
-        <v>1.000258526744174</v>
+        <v>0.9997817586066503</v>
       </c>
       <c r="Q13">
-        <v>1.000258526744174</v>
+        <v>0.9997817586066503</v>
       </c>
       <c r="R13">
-        <v>1.000096950118029</v>
+        <v>0.9999181595608611</v>
       </c>
       <c r="S13">
-        <v>1.000096950118029</v>
+        <v>0.9999181595608611</v>
       </c>
       <c r="T13">
-        <v>1.000034472855176</v>
+        <v>0.9999709013097414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="D14">
-        <v>1.006007490867104</v>
+        <v>0.9979230190617879</v>
       </c>
       <c r="E14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="F14">
-        <v>1.006007490867104</v>
+        <v>0.9979230190617879</v>
       </c>
       <c r="G14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="H14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="I14">
-        <v>0.9959950108599505</v>
+        <v>1.001384659732582</v>
       </c>
       <c r="J14">
-        <v>1.00330411473018</v>
+        <v>0.9988576598245562</v>
       </c>
       <c r="K14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="L14">
-        <v>0.9984981356332555</v>
+        <v>1.000519242967806</v>
       </c>
       <c r="M14">
-        <v>1.00225281325018</v>
+        <v>0.9992211310147971</v>
       </c>
       <c r="N14">
-        <v>1.00225281325018</v>
+        <v>0.9992211310147971</v>
       </c>
       <c r="O14">
-        <v>1.002603247076847</v>
+        <v>0.9990999739513834</v>
       </c>
       <c r="P14">
-        <v>1.001001254044538</v>
+        <v>0.9996538349991336</v>
       </c>
       <c r="Q14">
-        <v>1.001001254044538</v>
+        <v>0.9996538349991336</v>
       </c>
       <c r="R14">
-        <v>1.000375474441718</v>
+        <v>0.9998701869913018</v>
       </c>
       <c r="S14">
-        <v>1.000375474441718</v>
+        <v>0.9998701869913018</v>
       </c>
       <c r="T14">
-        <v>1.000133503892833</v>
+        <v>0.9999538445870576</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="D15">
-        <v>1.001551060553058</v>
+        <v>0.9992551188448509</v>
       </c>
       <c r="E15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="F15">
-        <v>1.001551060553058</v>
+        <v>0.9992551188448509</v>
       </c>
       <c r="G15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="H15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="I15">
-        <v>0.9989659596189684</v>
+        <v>1.000496588078894</v>
       </c>
       <c r="J15">
-        <v>1.000853086972874</v>
+        <v>0.9995903150010274</v>
       </c>
       <c r="K15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="L15">
-        <v>0.9996122291325652</v>
+        <v>1.000186219523844</v>
       </c>
       <c r="M15">
-        <v>1.000581644842812</v>
+        <v>0.9997206691843473</v>
       </c>
       <c r="N15">
-        <v>1.000581644842812</v>
+        <v>0.9997206691843473</v>
       </c>
       <c r="O15">
-        <v>1.000672125552833</v>
+        <v>0.9996772177899073</v>
       </c>
       <c r="P15">
-        <v>1.00025850627273</v>
+        <v>0.9998758526308462</v>
       </c>
       <c r="Q15">
-        <v>1.00025850627273</v>
+        <v>0.9998758526308462</v>
       </c>
       <c r="R15">
-        <v>1.000096936987688</v>
+        <v>0.9999534443540956</v>
       </c>
       <c r="S15">
-        <v>1.000096936987688</v>
+        <v>0.9999534443540956</v>
       </c>
       <c r="T15">
-        <v>1.0000344657571</v>
+        <v>0.999983446749384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="D16">
-        <v>0.9854710894363202</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="E16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="F16">
-        <v>0.9854710894363202</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="G16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="H16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="I16">
-        <v>1.009685946805441</v>
+        <v>1.000958657193137</v>
       </c>
       <c r="J16">
-        <v>0.9920090990811403</v>
+        <v>0.9992091083749851</v>
       </c>
       <c r="K16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="L16">
-        <v>1.003632224036981</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="M16">
-        <v>0.9945516567366508</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="N16">
-        <v>0.9945516567366508</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="O16">
-        <v>0.9937041375181472</v>
+        <v>0.9993768727445357</v>
       </c>
       <c r="P16">
-        <v>0.9975785125034277</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="Q16">
-        <v>0.9975785125034277</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="R16">
-        <v>0.9990919403868161</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="S16">
-        <v>0.9990919403868161</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="T16">
-        <v>0.9996771345723077</v>
+        <v>0.9999680441210591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="D17">
-        <v>0.9881110580767984</v>
+        <v>0.9972442770850863</v>
       </c>
       <c r="E17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="F17">
-        <v>0.9881110580767984</v>
+        <v>0.9972442770850863</v>
       </c>
       <c r="G17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="H17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="I17">
-        <v>1.007925965600576</v>
+        <v>1.001837149048359</v>
       </c>
       <c r="J17">
-        <v>0.9934610817393195</v>
+        <v>0.998484351190449</v>
       </c>
       <c r="K17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="L17">
-        <v>1.002972234468734</v>
+        <v>1.000688928348568</v>
       </c>
       <c r="M17">
-        <v>0.9955416462727662</v>
+        <v>0.9989666027168274</v>
       </c>
       <c r="N17">
-        <v>0.9955416462727662</v>
+        <v>0.9989666027168274</v>
       </c>
       <c r="O17">
-        <v>0.9948481247616172</v>
+        <v>0.9988058522080346</v>
       </c>
       <c r="P17">
-        <v>0.9980185090047554</v>
+        <v>0.999540711260741</v>
       </c>
       <c r="Q17">
-        <v>0.9980185090047554</v>
+        <v>0.999540711260741</v>
       </c>
       <c r="R17">
-        <v>0.9992569403707501</v>
+        <v>0.9998277655326977</v>
       </c>
       <c r="S17">
-        <v>0.9992569403707501</v>
+        <v>0.9998277655326977</v>
       </c>
       <c r="T17">
-        <v>0.9997358014704827</v>
+        <v>0.999938760394933</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="D18">
-        <v>0.9934194849595119</v>
+        <v>0.9959582394373682</v>
       </c>
       <c r="E18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="F18">
-        <v>0.9934194849595119</v>
+        <v>0.9959582394373682</v>
       </c>
       <c r="G18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="H18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="I18">
-        <v>1.004387007752333</v>
+        <v>1.002694512966136</v>
       </c>
       <c r="J18">
-        <v>0.9963807164382749</v>
+        <v>0.9977770326001525</v>
       </c>
       <c r="K18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="L18">
-        <v>1.001645132917943</v>
+        <v>1.00101044000263</v>
       </c>
       <c r="M18">
-        <v>0.9975323089387275</v>
+        <v>0.9984843397199989</v>
       </c>
       <c r="N18">
-        <v>0.9975323089387275</v>
+        <v>0.9984843397199989</v>
       </c>
       <c r="O18">
-        <v>0.99714844477191</v>
+        <v>0.9982485706800501</v>
       </c>
       <c r="P18">
-        <v>0.9989032502651326</v>
+        <v>0.9993263731475426</v>
       </c>
       <c r="Q18">
-        <v>0.9989032502651326</v>
+        <v>0.9993263731475426</v>
       </c>
       <c r="R18">
-        <v>0.9995887209283352</v>
+        <v>0.9997473898613144</v>
       </c>
       <c r="S18">
-        <v>0.9995887209283352</v>
+        <v>0.9997473898613144</v>
       </c>
       <c r="T18">
-        <v>0.9998537679839914</v>
+        <v>0.999910184168591</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="D19">
-        <v>0.9928166108433267</v>
+        <v>0.9999468950444055</v>
       </c>
       <c r="E19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="F19">
-        <v>0.9928166108433267</v>
+        <v>0.9999468950444055</v>
       </c>
       <c r="G19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="H19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="I19">
-        <v>1.004788927645208</v>
+        <v>1.000035403618783</v>
       </c>
       <c r="J19">
-        <v>0.9960491322077251</v>
+        <v>0.9999707918808989</v>
       </c>
       <c r="K19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="L19">
-        <v>1.001795853925422</v>
+        <v>1.000013275794241</v>
       </c>
       <c r="M19">
-        <v>0.9973062323843742</v>
+        <v>0.9999800854193233</v>
       </c>
       <c r="N19">
-        <v>0.9973062323843742</v>
+        <v>0.9999800854193233</v>
       </c>
       <c r="O19">
-        <v>0.9968871989921578</v>
+        <v>0.9999769875731818</v>
       </c>
       <c r="P19">
-        <v>0.9988027728980567</v>
+        <v>0.9999911488776293</v>
       </c>
       <c r="Q19">
-        <v>0.9988027728980567</v>
+        <v>0.9999911488776293</v>
       </c>
       <c r="R19">
-        <v>0.999551043154898</v>
+        <v>0.9999966806067822</v>
       </c>
       <c r="S19">
-        <v>0.999551043154898</v>
+        <v>0.9999966806067822</v>
       </c>
       <c r="T19">
-        <v>0.9998403720787542</v>
+        <v>0.9999988196544685</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="D20">
-        <v>0.999996924088603</v>
+        <v>0.9998646445687531</v>
       </c>
       <c r="E20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="F20">
-        <v>0.999996924088603</v>
+        <v>0.9998646445687531</v>
       </c>
       <c r="G20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="H20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="I20">
-        <v>1.000002050868922</v>
+        <v>1.000090236995333</v>
       </c>
       <c r="J20">
-        <v>0.9999983078362267</v>
+        <v>0.9999255542012787</v>
       </c>
       <c r="K20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="L20">
-        <v>1.000000768512052</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="M20">
-        <v>0.9999988463003275</v>
+        <v>0.9999492414614053</v>
       </c>
       <c r="N20">
-        <v>0.9999988463003275</v>
+        <v>0.9999492414614053</v>
       </c>
       <c r="O20">
-        <v>0.999998666812294</v>
+        <v>0.9999413457080298</v>
       </c>
       <c r="P20">
-        <v>0.9999994870375691</v>
+        <v>0.9999774404256226</v>
       </c>
       <c r="Q20">
-        <v>0.9999994870375691</v>
+        <v>0.9999774404256226</v>
       </c>
       <c r="R20">
-        <v>0.9999998074061899</v>
+        <v>0.9999915399077314</v>
       </c>
       <c r="S20">
-        <v>0.9999998074061899</v>
+        <v>0.9999915399077314</v>
       </c>
       <c r="T20">
-        <v>0.999999931388318</v>
+        <v>0.9999969918045896</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="D21">
-        <v>0.9999348587541259</v>
+        <v>0.999810482714136</v>
       </c>
       <c r="E21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="F21">
-        <v>0.9999348587541259</v>
+        <v>0.999810482714136</v>
       </c>
       <c r="G21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="H21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="I21">
-        <v>1.000043427651147</v>
+        <v>1.000126345384839</v>
       </c>
       <c r="J21">
-        <v>0.9999641717090894</v>
+        <v>0.9998957656465441</v>
       </c>
       <c r="K21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="L21">
-        <v>1.000016284539304</v>
+        <v>1.000047378675377</v>
       </c>
       <c r="M21">
-        <v>0.999975571646715</v>
+        <v>0.9999289306947565</v>
       </c>
       <c r="N21">
-        <v>0.999975571646715</v>
+        <v>0.9999289306947565</v>
       </c>
       <c r="O21">
-        <v>0.9999717716675064</v>
+        <v>0.9999178756786856</v>
       </c>
       <c r="P21">
-        <v>0.9999891426109114</v>
+        <v>0.9999684133549632</v>
       </c>
       <c r="Q21">
-        <v>0.9999891426109114</v>
+        <v>0.9999684133549632</v>
       </c>
       <c r="R21">
-        <v>0.9999959280930096</v>
+        <v>0.9999881546850666</v>
       </c>
       <c r="S21">
-        <v>0.9999959280930096</v>
+        <v>0.9999881546850666</v>
       </c>
       <c r="T21">
-        <v>0.9999985519553792</v>
+        <v>0.9999957882952749</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="D22">
-        <v>0.9997706596311844</v>
+        <v>0.9995913553296635</v>
       </c>
       <c r="E22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="F22">
-        <v>0.9997706596311844</v>
+        <v>0.9995913553296635</v>
       </c>
       <c r="G22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="H22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="I22">
-        <v>1.000152895557686</v>
+        <v>1.000272430465849</v>
       </c>
       <c r="J22">
-        <v>0.9998738610466495</v>
+        <v>0.9997752447810944</v>
       </c>
       <c r="K22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="L22">
-        <v>1.000057334905025</v>
+        <v>1.000102161755974</v>
       </c>
       <c r="M22">
-        <v>0.9999139972681046</v>
+        <v>0.9998467585428186</v>
       </c>
       <c r="N22">
-        <v>0.9999139972681046</v>
+        <v>0.9998467585428186</v>
       </c>
       <c r="O22">
-        <v>0.9999006185276196</v>
+        <v>0.9998229206222439</v>
       </c>
       <c r="P22">
-        <v>0.9999617764804114</v>
+        <v>0.9999318929472037</v>
       </c>
       <c r="Q22">
-        <v>0.9999617764804114</v>
+        <v>0.9999318929472037</v>
       </c>
       <c r="R22">
-        <v>0.9999856660865647</v>
+        <v>0.9999744601493963</v>
       </c>
       <c r="S22">
-        <v>0.9999856660865647</v>
+        <v>0.9999744601493963</v>
       </c>
       <c r="T22">
-        <v>0.9999949034917658</v>
+        <v>0.9999909193074216</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="D23">
+        <v>0.9993221533427838</v>
+      </c>
+      <c r="E23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="F23">
+        <v>0.9993221533427838</v>
+      </c>
+      <c r="G23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="H23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="I23">
+        <v>1.000451896201525</v>
+      </c>
+      <c r="J23">
+        <v>0.9996271839543713</v>
+      </c>
+      <c r="K23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="L23">
+        <v>1.000169461465969</v>
+      </c>
+      <c r="M23">
+        <v>0.9997458074043765</v>
+      </c>
+      <c r="N23">
+        <v>0.9997458074043765</v>
+      </c>
+      <c r="O23">
+        <v>0.9997062662543748</v>
+      </c>
+      <c r="P23">
+        <v>0.9998870254249074</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998870254249074</v>
+      </c>
+      <c r="R23">
+        <v>0.9999576344351728</v>
+      </c>
+      <c r="S23">
+        <v>0.9999576344351728</v>
+      </c>
+      <c r="T23">
+        <v>0.9999849363160979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="D24">
+        <v>1.006007798933863</v>
+      </c>
+      <c r="E24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="F24">
+        <v>1.006007798933863</v>
+      </c>
+      <c r="G24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="H24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="I24">
+        <v>0.9959947961708796</v>
+      </c>
+      <c r="J24">
+        <v>1.003304289263805</v>
+      </c>
+      <c r="K24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="L24">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="M24">
+        <v>1.002252925057273</v>
+      </c>
+      <c r="N24">
+        <v>1.002252925057273</v>
+      </c>
+      <c r="O24">
+        <v>1.002603379792784</v>
+      </c>
+      <c r="P24">
+        <v>1.001001300431743</v>
+      </c>
+      <c r="Q24">
+        <v>1.001001300431743</v>
+      </c>
+      <c r="R24">
+        <v>1.000375488118978</v>
+      </c>
+      <c r="S24">
+        <v>1.000375488118978</v>
+      </c>
+      <c r="T24">
+        <v>1.000133506318433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="D25">
+        <v>1.001551139753336</v>
+      </c>
+      <c r="E25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="F25">
+        <v>1.001551139753336</v>
+      </c>
+      <c r="G25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="H25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="I25">
+        <v>0.9989659102351678</v>
+      </c>
+      <c r="J25">
+        <v>1.000853126423775</v>
+      </c>
+      <c r="K25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="L25">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="M25">
+        <v>1.000581679996464</v>
+      </c>
+      <c r="N25">
+        <v>1.000581679996464</v>
+      </c>
+      <c r="O25">
+        <v>1.000672162138901</v>
+      </c>
+      <c r="P25">
+        <v>1.000258526744174</v>
+      </c>
+      <c r="Q25">
+        <v>1.000258526744174</v>
+      </c>
+      <c r="R25">
+        <v>1.000096950118029</v>
+      </c>
+      <c r="S25">
+        <v>1.000096950118029</v>
+      </c>
+      <c r="T25">
+        <v>1.000034472855176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="D26">
+        <v>1.006007490867104</v>
+      </c>
+      <c r="E26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="F26">
+        <v>1.006007490867104</v>
+      </c>
+      <c r="G26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="H26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="I26">
+        <v>0.9959950108599505</v>
+      </c>
+      <c r="J26">
+        <v>1.00330411473018</v>
+      </c>
+      <c r="K26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="L26">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="M26">
+        <v>1.00225281325018</v>
+      </c>
+      <c r="N26">
+        <v>1.00225281325018</v>
+      </c>
+      <c r="O26">
+        <v>1.002603247076847</v>
+      </c>
+      <c r="P26">
+        <v>1.001001254044538</v>
+      </c>
+      <c r="Q26">
+        <v>1.001001254044538</v>
+      </c>
+      <c r="R26">
+        <v>1.000375474441718</v>
+      </c>
+      <c r="S26">
+        <v>1.000375474441718</v>
+      </c>
+      <c r="T26">
+        <v>1.000133503892833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="D27">
+        <v>1.001551060553058</v>
+      </c>
+      <c r="E27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="F27">
+        <v>1.001551060553058</v>
+      </c>
+      <c r="G27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="H27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="I27">
+        <v>0.9989659596189684</v>
+      </c>
+      <c r="J27">
+        <v>1.000853086972874</v>
+      </c>
+      <c r="K27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="L27">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="M27">
+        <v>1.000581644842812</v>
+      </c>
+      <c r="N27">
+        <v>1.000581644842812</v>
+      </c>
+      <c r="O27">
+        <v>1.000672125552833</v>
+      </c>
+      <c r="P27">
+        <v>1.00025850627273</v>
+      </c>
+      <c r="Q27">
+        <v>1.00025850627273</v>
+      </c>
+      <c r="R27">
+        <v>1.000096936987688</v>
+      </c>
+      <c r="S27">
+        <v>1.000096936987688</v>
+      </c>
+      <c r="T27">
+        <v>1.0000344657571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="D28">
+        <v>0.9854710894363202</v>
+      </c>
+      <c r="E28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="F28">
+        <v>0.9854710894363202</v>
+      </c>
+      <c r="G28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="H28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="I28">
+        <v>1.009685946805441</v>
+      </c>
+      <c r="J28">
+        <v>0.9920090990811403</v>
+      </c>
+      <c r="K28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="L28">
+        <v>1.003632224036981</v>
+      </c>
+      <c r="M28">
+        <v>0.9945516567366508</v>
+      </c>
+      <c r="N28">
+        <v>0.9945516567366508</v>
+      </c>
+      <c r="O28">
+        <v>0.9937041375181472</v>
+      </c>
+      <c r="P28">
+        <v>0.9975785125034277</v>
+      </c>
+      <c r="Q28">
+        <v>0.9975785125034277</v>
+      </c>
+      <c r="R28">
+        <v>0.9990919403868161</v>
+      </c>
+      <c r="S28">
+        <v>0.9990919403868161</v>
+      </c>
+      <c r="T28">
+        <v>0.9996771345723077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="D29">
+        <v>0.9881110580767984</v>
+      </c>
+      <c r="E29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="F29">
+        <v>0.9881110580767984</v>
+      </c>
+      <c r="G29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="H29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="I29">
+        <v>1.007925965600576</v>
+      </c>
+      <c r="J29">
+        <v>0.9934610817393195</v>
+      </c>
+      <c r="K29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="L29">
+        <v>1.002972234468734</v>
+      </c>
+      <c r="M29">
+        <v>0.9955416462727662</v>
+      </c>
+      <c r="N29">
+        <v>0.9955416462727662</v>
+      </c>
+      <c r="O29">
+        <v>0.9948481247616172</v>
+      </c>
+      <c r="P29">
+        <v>0.9980185090047554</v>
+      </c>
+      <c r="Q29">
+        <v>0.9980185090047554</v>
+      </c>
+      <c r="R29">
+        <v>0.9992569403707501</v>
+      </c>
+      <c r="S29">
+        <v>0.9992569403707501</v>
+      </c>
+      <c r="T29">
+        <v>0.9997358014704827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="D30">
+        <v>0.9934194849595119</v>
+      </c>
+      <c r="E30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="F30">
+        <v>0.9934194849595119</v>
+      </c>
+      <c r="G30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="H30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="I30">
+        <v>1.004387007752333</v>
+      </c>
+      <c r="J30">
+        <v>0.9963807164382749</v>
+      </c>
+      <c r="K30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="L30">
+        <v>1.001645132917943</v>
+      </c>
+      <c r="M30">
+        <v>0.9975323089387275</v>
+      </c>
+      <c r="N30">
+        <v>0.9975323089387275</v>
+      </c>
+      <c r="O30">
+        <v>0.99714844477191</v>
+      </c>
+      <c r="P30">
+        <v>0.9989032502651326</v>
+      </c>
+      <c r="Q30">
+        <v>0.9989032502651326</v>
+      </c>
+      <c r="R30">
+        <v>0.9995887209283352</v>
+      </c>
+      <c r="S30">
+        <v>0.9995887209283352</v>
+      </c>
+      <c r="T30">
+        <v>0.9998537679839914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="D31">
+        <v>0.9928166108433267</v>
+      </c>
+      <c r="E31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="F31">
+        <v>0.9928166108433267</v>
+      </c>
+      <c r="G31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="H31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="I31">
+        <v>1.004788927645208</v>
+      </c>
+      <c r="J31">
+        <v>0.9960491322077251</v>
+      </c>
+      <c r="K31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="L31">
+        <v>1.001795853925422</v>
+      </c>
+      <c r="M31">
+        <v>0.9973062323843742</v>
+      </c>
+      <c r="N31">
+        <v>0.9973062323843742</v>
+      </c>
+      <c r="O31">
+        <v>0.9968871989921578</v>
+      </c>
+      <c r="P31">
+        <v>0.9988027728980567</v>
+      </c>
+      <c r="Q31">
+        <v>0.9988027728980567</v>
+      </c>
+      <c r="R31">
+        <v>0.999551043154898</v>
+      </c>
+      <c r="S31">
+        <v>0.999551043154898</v>
+      </c>
+      <c r="T31">
+        <v>0.9998403720787542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="D32">
+        <v>0.9828084010958902</v>
+      </c>
+      <c r="E32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="F32">
+        <v>0.9828084010958902</v>
+      </c>
+      <c r="G32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="H32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="I32">
+        <v>1.011461073972603</v>
+      </c>
+      <c r="J32">
+        <v>0.9905446205479455</v>
+      </c>
+      <c r="K32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="L32">
+        <v>1.004297893150686</v>
+      </c>
+      <c r="M32">
+        <v>0.9935531471232879</v>
+      </c>
+      <c r="N32">
+        <v>0.9935531471232879</v>
+      </c>
+      <c r="O32">
+        <v>0.9925503049315071</v>
+      </c>
+      <c r="P32">
+        <v>0.9971347291324205</v>
+      </c>
+      <c r="Q32">
+        <v>0.9971347291324205</v>
+      </c>
+      <c r="R32">
+        <v>0.9989255201369868</v>
+      </c>
+      <c r="S32">
+        <v>0.9989255201369868</v>
+      </c>
+      <c r="T32">
+        <v>0.9996179625114158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="D33">
+        <v>0.9922334215789474</v>
+      </c>
+      <c r="E33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="F33">
+        <v>0.9922334215789474</v>
+      </c>
+      <c r="G33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="H33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="I33">
+        <v>1.005177716842105</v>
+      </c>
+      <c r="J33">
+        <v>0.995728382105263</v>
+      </c>
+      <c r="K33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="L33">
+        <v>1.001941649473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9970875355263158</v>
+      </c>
+      <c r="N33">
+        <v>0.9970875355263158</v>
+      </c>
+      <c r="O33">
+        <v>0.9966344843859649</v>
+      </c>
+      <c r="P33">
+        <v>0.9987055735087719</v>
+      </c>
+      <c r="Q33">
+        <v>0.9987055735087719</v>
+      </c>
+      <c r="R33">
+        <v>0.9995145925</v>
+      </c>
+      <c r="S33">
+        <v>0.9995145925</v>
+      </c>
+      <c r="T33">
+        <v>0.999827411491228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="D34">
+        <v>0.9922336136842104</v>
+      </c>
+      <c r="E34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="F34">
+        <v>0.9922336136842104</v>
+      </c>
+      <c r="G34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="H34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="I34">
+        <v>1.005177594210526</v>
+      </c>
+      <c r="J34">
+        <v>0.9957284857894737</v>
+      </c>
+      <c r="K34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="L34">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="M34">
+        <v>0.9970876036842102</v>
+      </c>
+      <c r="N34">
+        <v>0.9970876036842102</v>
+      </c>
+      <c r="O34">
+        <v>0.9966345643859648</v>
+      </c>
+      <c r="P34">
+        <v>0.9987056003508769</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987056003508769</v>
+      </c>
+      <c r="R34">
+        <v>0.9995145986842102</v>
+      </c>
+      <c r="S34">
+        <v>0.9995145986842102</v>
+      </c>
+      <c r="T34">
+        <v>0.9998274124561402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="D35">
+        <v>0.973854455364617</v>
+      </c>
+      <c r="E35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="F35">
+        <v>0.973854455364617</v>
+      </c>
+      <c r="G35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="H35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="I35">
+        <v>1.017430349766881</v>
+      </c>
+      <c r="J35">
+        <v>0.9856199511840482</v>
+      </c>
+      <c r="K35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="L35">
+        <v>1.006536408329753</v>
+      </c>
+      <c r="M35">
+        <v>0.9901954318471848</v>
+      </c>
+      <c r="N35">
+        <v>0.9901954318471848</v>
+      </c>
+      <c r="O35">
+        <v>0.9886702716261393</v>
+      </c>
+      <c r="P35">
+        <v>0.9956424240080408</v>
+      </c>
+      <c r="Q35">
+        <v>0.9956424240080408</v>
+      </c>
+      <c r="R35">
+        <v>0.9983659200884688</v>
+      </c>
+      <c r="S35">
+        <v>0.9983659200884688</v>
+      </c>
+      <c r="T35">
+        <v>0.9994189968841342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="D36">
+        <v>0.999996924088603</v>
+      </c>
+      <c r="E36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="F36">
+        <v>0.999996924088603</v>
+      </c>
+      <c r="G36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="H36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="I36">
+        <v>1.000002050868922</v>
+      </c>
+      <c r="J36">
+        <v>0.9999983078362267</v>
+      </c>
+      <c r="K36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="L36">
+        <v>1.000000768512052</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988463003275</v>
+      </c>
+      <c r="N36">
+        <v>0.9999988463003275</v>
+      </c>
+      <c r="O36">
+        <v>0.999998666812294</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994870375691</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994870375691</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998074061899</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998074061899</v>
+      </c>
+      <c r="T36">
+        <v>0.999999931388318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="D37">
+        <v>0.9999348587541259</v>
+      </c>
+      <c r="E37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="F37">
+        <v>0.9999348587541259</v>
+      </c>
+      <c r="G37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="H37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="I37">
+        <v>1.000043427651147</v>
+      </c>
+      <c r="J37">
+        <v>0.9999641717090894</v>
+      </c>
+      <c r="K37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="L37">
+        <v>1.000016284539304</v>
+      </c>
+      <c r="M37">
+        <v>0.999975571646715</v>
+      </c>
+      <c r="N37">
+        <v>0.999975571646715</v>
+      </c>
+      <c r="O37">
+        <v>0.9999717716675064</v>
+      </c>
+      <c r="P37">
+        <v>0.9999891426109114</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999891426109114</v>
+      </c>
+      <c r="R37">
+        <v>0.9999959280930096</v>
+      </c>
+      <c r="S37">
+        <v>0.9999959280930096</v>
+      </c>
+      <c r="T37">
+        <v>0.9999985519553792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="D38">
+        <v>0.9997706596311844</v>
+      </c>
+      <c r="E38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="F38">
+        <v>0.9997706596311844</v>
+      </c>
+      <c r="G38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="H38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="I38">
+        <v>1.000152895557686</v>
+      </c>
+      <c r="J38">
+        <v>0.9998738610466495</v>
+      </c>
+      <c r="K38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="L38">
+        <v>1.000057334905025</v>
+      </c>
+      <c r="M38">
+        <v>0.9999139972681046</v>
+      </c>
+      <c r="N38">
+        <v>0.9999139972681046</v>
+      </c>
+      <c r="O38">
+        <v>0.9999006185276196</v>
+      </c>
+      <c r="P38">
+        <v>0.9999617764804114</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999617764804114</v>
+      </c>
+      <c r="R38">
+        <v>0.9999856660865647</v>
+      </c>
+      <c r="S38">
+        <v>0.9999856660865647</v>
+      </c>
+      <c r="T38">
+        <v>0.9999949034917658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000134319885843</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9994627189113763</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000134319885843</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9994627189113763</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134319885843</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000134319885843</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00035818380463</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997044899509185</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000134319885843</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000134319885843</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997985193986098</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9997985193986098</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997671762493794</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999104528943542</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999104528943542</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999664196422264</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999664196422264</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999880587207425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="D40">
+        <v>0.9975515061592611</v>
+      </c>
+      <c r="E40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="F40">
+        <v>0.9975515061592611</v>
+      </c>
+      <c r="G40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="H40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="I40">
+        <v>1.001632331258286</v>
+      </c>
+      <c r="J40">
+        <v>0.9986533283472304</v>
+      </c>
+      <c r="K40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="L40">
+        <v>1.000612122815429</v>
+      </c>
+      <c r="M40">
+        <v>0.9990818144873452</v>
+      </c>
+      <c r="N40">
+        <v>0.9990818144873452</v>
+      </c>
+      <c r="O40">
+        <v>0.9989389857739736</v>
+      </c>
+      <c r="P40">
+        <v>0.9995919172633733</v>
+      </c>
+      <c r="Q40">
+        <v>0.9995919172633733</v>
+      </c>
+      <c r="R40">
+        <v>0.9998469686513872</v>
+      </c>
+      <c r="S40">
+        <v>0.9998469686513872</v>
+      </c>
+      <c r="T40">
+        <v>0.9999455890351775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="D41">
+        <v>1.001436879184545</v>
+      </c>
+      <c r="E41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="F41">
+        <v>1.001436879184545</v>
+      </c>
+      <c r="G41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="H41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="I41">
+        <v>0.9990420803186153</v>
+      </c>
+      <c r="J41">
+        <v>1.000790282640339</v>
+      </c>
+      <c r="K41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="L41">
+        <v>0.9996407779493626</v>
+      </c>
+      <c r="M41">
+        <v>1.000538828566954</v>
+      </c>
+      <c r="N41">
+        <v>1.000538828566954</v>
+      </c>
+      <c r="O41">
+        <v>1.000622646591416</v>
+      </c>
+      <c r="P41">
+        <v>1.00023947836109</v>
+      </c>
+      <c r="Q41">
+        <v>1.00023947836109</v>
+      </c>
+      <c r="R41">
+        <v>1.000089803258158</v>
+      </c>
+      <c r="S41">
+        <v>1.000089803258158</v>
+      </c>
+      <c r="T41">
+        <v>1.000031929331931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="D42">
+        <v>0.9904773155049329</v>
+      </c>
+      <c r="E42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="F42">
+        <v>0.9904773155049329</v>
+      </c>
+      <c r="G42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="H42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="I42">
+        <v>1.006348459571184</v>
+      </c>
+      <c r="J42">
+        <v>0.9947625230621637</v>
+      </c>
+      <c r="K42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="L42">
+        <v>1.002380667928682</v>
+      </c>
+      <c r="M42">
+        <v>0.9964289917168072</v>
+      </c>
+      <c r="N42">
+        <v>0.9964289917168072</v>
+      </c>
+      <c r="O42">
+        <v>0.9958735021652595</v>
+      </c>
+      <c r="P42">
+        <v>0.9984128837874321</v>
+      </c>
+      <c r="Q42">
+        <v>0.9984128837874321</v>
+      </c>
+      <c r="R42">
+        <v>0.9994048298227445</v>
+      </c>
+      <c r="S42">
+        <v>0.9994048298227445</v>
+      </c>
+      <c r="T42">
+        <v>0.9997883836540543</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186219523844</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="D3">
-        <v>0.9992551188448509</v>
+        <v>0.9998646445687531</v>
       </c>
       <c r="E3">
-        <v>1.000186219523844</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="F3">
-        <v>1.000186219523844</v>
+        <v>0.9998646445687531</v>
       </c>
       <c r="G3">
-        <v>1.000496588078894</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="H3">
-        <v>0.9995903150010274</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="I3">
-        <v>1.000186219523844</v>
+        <v>1.000090236995333</v>
       </c>
       <c r="J3">
-        <v>0.9992551188448509</v>
+        <v>0.9999255542012787</v>
       </c>
       <c r="K3">
-        <v>1.000186219523844</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="L3">
-        <v>1.000186219523844</v>
+        <v>1.000033838354057</v>
       </c>
       <c r="M3">
-        <v>0.9997206691843473</v>
+        <v>0.9999492414614053</v>
       </c>
       <c r="N3">
-        <v>0.9997206691843473</v>
+        <v>0.9999492414614053</v>
       </c>
       <c r="O3">
-        <v>0.9996772177899073</v>
+        <v>0.9999413457080298</v>
       </c>
       <c r="P3">
-        <v>0.9998758526308462</v>
+        <v>0.9999774404256226</v>
       </c>
       <c r="Q3">
-        <v>0.9998758526308462</v>
+        <v>0.9999774404256226</v>
       </c>
       <c r="R3">
-        <v>0.9999534443540956</v>
+        <v>0.9999915399077314</v>
       </c>
       <c r="S3">
-        <v>0.9999534443540956</v>
+        <v>0.9999915399077314</v>
       </c>
       <c r="T3">
-        <v>0.999983446749384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999969918045896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359494649805</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="D4">
-        <v>0.9985620152088167</v>
+        <v>0.9975515061592611</v>
       </c>
       <c r="E4">
-        <v>1.000359494649805</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="F4">
-        <v>1.000359494649805</v>
+        <v>0.9975515061592611</v>
       </c>
       <c r="G4">
-        <v>1.000958657193137</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="H4">
-        <v>0.9992091083749847</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="I4">
-        <v>1.000359494649805</v>
+        <v>1.001632331258286</v>
       </c>
       <c r="J4">
-        <v>0.9985620152088167</v>
+        <v>0.9986533283472304</v>
       </c>
       <c r="K4">
-        <v>1.000359494649805</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="L4">
-        <v>1.000359494649805</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="M4">
-        <v>0.9994607549293111</v>
+        <v>0.9990818144873452</v>
       </c>
       <c r="N4">
-        <v>0.9994607549293111</v>
+        <v>0.9990818144873452</v>
       </c>
       <c r="O4">
-        <v>0.9993768727445356</v>
+        <v>0.9989389857739736</v>
       </c>
       <c r="P4">
-        <v>0.9997603348361425</v>
+        <v>0.9995919172633733</v>
       </c>
       <c r="Q4">
-        <v>0.9997603348361425</v>
+        <v>0.9995919172633733</v>
       </c>
       <c r="R4">
-        <v>0.9999101247895581</v>
+        <v>0.9998469686513872</v>
       </c>
       <c r="S4">
-        <v>0.9999101247895581</v>
+        <v>0.9998469686513872</v>
       </c>
       <c r="T4">
-        <v>0.9999680441210589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999455890351775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688928348568</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="D5">
-        <v>0.9972442770850865</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="E5">
-        <v>1.000688928348568</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="F5">
-        <v>1.000688928348568</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="G5">
-        <v>1.001837149048359</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="H5">
-        <v>0.998484351190449</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="I5">
-        <v>1.000688928348568</v>
+        <v>1.005195873162825</v>
       </c>
       <c r="J5">
-        <v>0.9972442770850865</v>
+        <v>0.9957134040634025</v>
       </c>
       <c r="K5">
-        <v>1.000688928348568</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="L5">
-        <v>1.000688928348568</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="M5">
-        <v>0.9989666027168274</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="N5">
-        <v>0.9989666027168274</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="O5">
-        <v>0.9988058522080346</v>
+        <v>0.9966226837223844</v>
       </c>
       <c r="P5">
-        <v>0.999540711260741</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="Q5">
-        <v>0.999540711260741</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="R5">
-        <v>0.9998277655326977</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="S5">
-        <v>0.9998277655326977</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="T5">
-        <v>0.999938760394933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.999826806480549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00101044000263</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="D6">
-        <v>0.9959582394373682</v>
+        <v>0.973854455364617</v>
       </c>
       <c r="E6">
-        <v>1.00101044000263</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="F6">
-        <v>1.00101044000263</v>
+        <v>0.973854455364617</v>
       </c>
       <c r="G6">
-        <v>1.002694512966136</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="H6">
-        <v>0.9977770326001525</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="I6">
-        <v>1.00101044000263</v>
+        <v>1.017430349766881</v>
       </c>
       <c r="J6">
-        <v>0.9959582394373682</v>
+        <v>0.9856199511840482</v>
       </c>
       <c r="K6">
-        <v>1.00101044000263</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="L6">
-        <v>1.00101044000263</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="M6">
-        <v>0.9984843397199989</v>
+        <v>0.9901954318471848</v>
       </c>
       <c r="N6">
-        <v>0.9984843397199989</v>
+        <v>0.9901954318471848</v>
       </c>
       <c r="O6">
-        <v>0.9982485706800501</v>
+        <v>0.9886702716261393</v>
       </c>
       <c r="P6">
-        <v>0.9993263731475426</v>
+        <v>0.9956424240080408</v>
       </c>
       <c r="Q6">
-        <v>0.9993263731475426</v>
+        <v>0.9956424240080408</v>
       </c>
       <c r="R6">
-        <v>0.9997473898613144</v>
+        <v>0.9983659200884688</v>
       </c>
       <c r="S6">
-        <v>0.9997473898613144</v>
+        <v>0.9983659200884688</v>
       </c>
       <c r="T6">
-        <v>0.999910184168591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9994189968841342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000013275794241</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="D7">
-        <v>0.9999468950444056</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="E7">
-        <v>1.000013275794241</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="F7">
-        <v>1.000013275794241</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="G7">
-        <v>1.000035403618783</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="H7">
-        <v>0.9999707918808989</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="I7">
-        <v>1.000013275794241</v>
+        <v>1.000542192137744</v>
       </c>
       <c r="J7">
-        <v>0.9999468950444056</v>
+        <v>0.9995526916044192</v>
       </c>
       <c r="K7">
-        <v>1.000013275794241</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="L7">
-        <v>1.000013275794241</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="M7">
-        <v>0.9999800854193233</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="N7">
-        <v>0.9999800854193233</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="O7">
-        <v>0.9999769875731818</v>
+        <v>0.9996475751132622</v>
       </c>
       <c r="P7">
-        <v>0.9999911488776293</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="Q7">
-        <v>0.9999911488776293</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="R7">
-        <v>0.9999966806067822</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="S7">
-        <v>0.9999966806067822</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="T7">
-        <v>0.9999988196544685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999819265183637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033838354057</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="D8">
-        <v>0.9998646445687531</v>
+        <v>0.9999348587541259</v>
       </c>
       <c r="E8">
-        <v>1.000033838354057</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="F8">
-        <v>1.000033838354057</v>
+        <v>0.9999348587541259</v>
       </c>
       <c r="G8">
-        <v>1.000090236995334</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="H8">
-        <v>0.9999255542012788</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="I8">
-        <v>1.000033838354057</v>
+        <v>1.000043427651147</v>
       </c>
       <c r="J8">
-        <v>0.9998646445687531</v>
+        <v>0.9999641717090894</v>
       </c>
       <c r="K8">
-        <v>1.000033838354057</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="L8">
-        <v>1.000033838354057</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="M8">
-        <v>0.9999492414614053</v>
+        <v>0.999975571646715</v>
       </c>
       <c r="N8">
-        <v>0.9999492414614053</v>
+        <v>0.999975571646715</v>
       </c>
       <c r="O8">
-        <v>0.9999413457080298</v>
+        <v>0.9999717716675064</v>
       </c>
       <c r="P8">
-        <v>0.9999774404256226</v>
+        <v>0.9999891426109114</v>
       </c>
       <c r="Q8">
-        <v>0.9999774404256226</v>
+        <v>0.9999891426109114</v>
       </c>
       <c r="R8">
-        <v>0.9999915399077314</v>
+        <v>0.9999959280930096</v>
       </c>
       <c r="S8">
-        <v>0.9999915399077314</v>
+        <v>0.9999959280930096</v>
       </c>
       <c r="T8">
-        <v>0.9999969918045896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999985519553792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000047378675377</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="D9">
-        <v>0.999810482714136</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="E9">
-        <v>1.000047378675377</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="F9">
-        <v>1.000047378675377</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="G9">
-        <v>1.000126345384839</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="H9">
-        <v>0.9998957656465444</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="I9">
-        <v>1.000047378675377</v>
+        <v>1.000958657193137</v>
       </c>
       <c r="J9">
-        <v>0.999810482714136</v>
+        <v>0.9992091083749851</v>
       </c>
       <c r="K9">
-        <v>1.000047378675377</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="L9">
-        <v>1.000047378675377</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="M9">
-        <v>0.9999289306947565</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="N9">
-        <v>0.9999289306947565</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="O9">
-        <v>0.9999178756786858</v>
+        <v>0.9993768727445357</v>
       </c>
       <c r="P9">
-        <v>0.9999684133549632</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="Q9">
-        <v>0.9999684133549632</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="R9">
-        <v>0.9999881546850666</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="S9">
-        <v>0.9999881546850666</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="T9">
-        <v>0.999995788295275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999680441210591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102161755974</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="D10">
-        <v>0.9995913553296635</v>
+        <v>0.9734653174187406</v>
       </c>
       <c r="E10">
-        <v>1.000102161755974</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="F10">
-        <v>1.000102161755974</v>
+        <v>0.9734653174187406</v>
       </c>
       <c r="G10">
-        <v>1.000272430465849</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="H10">
-        <v>0.9997752447810944</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="I10">
-        <v>1.000102161755974</v>
+        <v>1.017689775021464</v>
       </c>
       <c r="J10">
-        <v>0.9995913553296635</v>
+        <v>0.9854059253423578</v>
       </c>
       <c r="K10">
-        <v>1.000102161755974</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="L10">
-        <v>1.000102161755974</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="M10">
-        <v>0.9998467585428186</v>
+        <v>0.9900495060715553</v>
       </c>
       <c r="N10">
-        <v>0.9998467585428186</v>
+        <v>0.9900495060715553</v>
       </c>
       <c r="O10">
-        <v>0.9998229206222439</v>
+        <v>0.9885016458284895</v>
       </c>
       <c r="P10">
-        <v>0.9999318929472037</v>
+        <v>0.9955775689558268</v>
       </c>
       <c r="Q10">
-        <v>0.9999318929472037</v>
+        <v>0.9955775689558268</v>
       </c>
       <c r="R10">
-        <v>0.9999744601493963</v>
+        <v>0.9983416003979626</v>
       </c>
       <c r="S10">
-        <v>0.9999744601493963</v>
+        <v>0.9983416003979626</v>
       </c>
       <c r="T10">
-        <v>0.9999909193074216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9994103503259453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169461465969</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="D11">
-        <v>0.9993221533427838</v>
+        <v>0.9976918217413189</v>
       </c>
       <c r="E11">
-        <v>1.000169461465969</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="F11">
-        <v>1.000169461465969</v>
+        <v>0.9976918217413189</v>
       </c>
       <c r="G11">
-        <v>1.000451896201525</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="H11">
-        <v>0.9996271839543713</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="I11">
-        <v>1.000169461465969</v>
+        <v>1.001538787424128</v>
       </c>
       <c r="J11">
-        <v>0.9993221533427838</v>
+        <v>0.9987305016096079</v>
       </c>
       <c r="K11">
-        <v>1.000169461465969</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="L11">
-        <v>1.000169461465969</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="M11">
-        <v>0.9997458074043765</v>
+        <v>0.9991344322165578</v>
       </c>
       <c r="N11">
-        <v>0.9997458074043765</v>
+        <v>0.9991344322165578</v>
       </c>
       <c r="O11">
-        <v>0.9997062662543748</v>
+        <v>0.9989997886809078</v>
       </c>
       <c r="P11">
-        <v>0.9998870254249074</v>
+        <v>0.9996153023749708</v>
       </c>
       <c r="Q11">
-        <v>0.9998870254249074</v>
+        <v>0.9996153023749708</v>
       </c>
       <c r="R11">
-        <v>0.9999576344351728</v>
+        <v>0.9998557374541772</v>
       </c>
       <c r="S11">
-        <v>0.9999576344351728</v>
+        <v>0.9998557374541772</v>
       </c>
       <c r="T11">
-        <v>0.9999849363160979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999487064750742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980511806822</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="D12">
-        <v>1.006007798933863</v>
+        <v>0.9920372764736873</v>
       </c>
       <c r="E12">
-        <v>0.9984980511806822</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="F12">
-        <v>0.9984980511806822</v>
+        <v>0.9920372764736873</v>
       </c>
       <c r="G12">
-        <v>0.9959947961708795</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="H12">
-        <v>1.003304289263805</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="I12">
-        <v>0.9984980511806822</v>
+        <v>1.005308481526316</v>
       </c>
       <c r="J12">
-        <v>1.006007798933863</v>
+        <v>0.9956205014842092</v>
       </c>
       <c r="K12">
-        <v>0.9984980511806822</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="L12">
-        <v>0.9984980511806822</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="M12">
-        <v>1.002252925057273</v>
+        <v>0.9970139831578966</v>
       </c>
       <c r="N12">
-        <v>1.002252925057273</v>
+        <v>0.9970139831578966</v>
       </c>
       <c r="O12">
-        <v>1.002603379792783</v>
+        <v>0.9965494892666674</v>
       </c>
       <c r="P12">
-        <v>1.001001300431742</v>
+        <v>0.9986728853859663</v>
       </c>
       <c r="Q12">
-        <v>1.001001300431742</v>
+        <v>0.9986728853859663</v>
       </c>
       <c r="R12">
-        <v>1.000375488118977</v>
+        <v>0.9995023365000012</v>
       </c>
       <c r="S12">
-        <v>1.000375488118977</v>
+        <v>0.9995023365000012</v>
       </c>
       <c r="T12">
-        <v>1.000133506318432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998230548350883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122202395928</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="D13">
-        <v>1.001551139753336</v>
+        <v>1.005218680610642</v>
       </c>
       <c r="E13">
-        <v>0.9996122202395928</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="F13">
-        <v>0.9996122202395928</v>
+        <v>1.005218680610642</v>
       </c>
       <c r="G13">
-        <v>0.9989659102351676</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="H13">
-        <v>1.000853126423775</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="I13">
-        <v>0.9996122202395928</v>
+        <v>0.996520879895196</v>
       </c>
       <c r="J13">
-        <v>1.001551139753336</v>
+        <v>1.002870273197885</v>
       </c>
       <c r="K13">
-        <v>0.9996122202395928</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="L13">
-        <v>0.9996122202395928</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="M13">
-        <v>1.000581679996464</v>
+        <v>1.00195700636394</v>
       </c>
       <c r="N13">
-        <v>1.000581679996464</v>
+        <v>1.00195700636394</v>
       </c>
       <c r="O13">
-        <v>1.000672162138901</v>
+        <v>1.002261428641922</v>
       </c>
       <c r="P13">
-        <v>1.000258526744174</v>
+        <v>1.000869781615039</v>
       </c>
       <c r="Q13">
-        <v>1.000258526744174</v>
+        <v>1.000869781615039</v>
       </c>
       <c r="R13">
-        <v>1.000096950118029</v>
+        <v>1.000326169240589</v>
       </c>
       <c r="S13">
-        <v>1.000096950118029</v>
+        <v>1.000326169240589</v>
       </c>
       <c r="T13">
-        <v>1.000034472855176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000115971675906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981356332555</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D14">
-        <v>1.006007490867104</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="E14">
-        <v>0.9984981356332555</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="F14">
-        <v>0.9984981356332555</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="G14">
-        <v>0.9959950108599505</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H14">
-        <v>1.00330411473018</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="I14">
-        <v>0.9984981356332555</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="J14">
-        <v>1.006007490867104</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="K14">
-        <v>0.9984981356332555</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L14">
-        <v>0.9984981356332555</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M14">
-        <v>1.00225281325018</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N14">
-        <v>1.00225281325018</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O14">
-        <v>1.002603247076847</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P14">
-        <v>1.001001254044538</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q14">
-        <v>1.001001254044538</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R14">
-        <v>1.000375474441718</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S14">
-        <v>1.000375474441718</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T14">
-        <v>1.000133503892833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9989812549999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122291325652</v>
+        <v>1.004298</v>
       </c>
       <c r="D15">
-        <v>1.001551060553058</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="E15">
-        <v>0.9996122291325652</v>
+        <v>1.004298</v>
       </c>
       <c r="F15">
-        <v>0.9996122291325652</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="G15">
-        <v>0.9989659596189686</v>
+        <v>1.004298</v>
       </c>
       <c r="H15">
-        <v>1.000853086972874</v>
+        <v>1.004298</v>
       </c>
       <c r="I15">
-        <v>0.9996122291325652</v>
+        <v>1.0114614</v>
       </c>
       <c r="J15">
-        <v>1.001551060553058</v>
+        <v>0.99054432</v>
       </c>
       <c r="K15">
-        <v>0.9996122291325652</v>
+        <v>1.004298</v>
       </c>
       <c r="L15">
-        <v>0.9996122291325652</v>
+        <v>1.004298</v>
       </c>
       <c r="M15">
-        <v>1.000581644842812</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="N15">
-        <v>1.000581644842812</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="O15">
-        <v>1.000672125552833</v>
+        <v>0.99255006</v>
       </c>
       <c r="P15">
-        <v>1.00025850627273</v>
+        <v>0.9971346199999999</v>
       </c>
       <c r="Q15">
-        <v>1.00025850627273</v>
+        <v>0.9971346199999999</v>
       </c>
       <c r="R15">
-        <v>1.000096936987688</v>
+        <v>0.9989254649999999</v>
       </c>
       <c r="S15">
-        <v>1.000096936987688</v>
+        <v>0.9989254649999999</v>
       </c>
       <c r="T15">
-        <v>1.0000344657571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.99961793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000768512052</v>
+        <v>1.0042979</v>
       </c>
       <c r="D16">
-        <v>0.9999969240886029</v>
+        <v>0.98280841</v>
       </c>
       <c r="E16">
-        <v>1.000000768512052</v>
+        <v>1.0042979</v>
       </c>
       <c r="F16">
-        <v>1.000000768512052</v>
+        <v>0.98280841</v>
       </c>
       <c r="G16">
-        <v>1.000002050868922</v>
+        <v>1.0042979</v>
       </c>
       <c r="H16">
-        <v>0.9999983078362267</v>
+        <v>1.0042979</v>
       </c>
       <c r="I16">
-        <v>1.000000768512052</v>
+        <v>1.0114611</v>
       </c>
       <c r="J16">
-        <v>0.9999969240886029</v>
+        <v>0.99054463</v>
       </c>
       <c r="K16">
-        <v>1.000000768512052</v>
+        <v>1.0042979</v>
       </c>
       <c r="L16">
-        <v>1.000000768512052</v>
+        <v>1.0042979</v>
       </c>
       <c r="M16">
-        <v>0.9999988463003275</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N16">
-        <v>0.9999988463003275</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O16">
-        <v>0.999998666812294</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P16">
-        <v>0.9999994870375691</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999994870375691</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R16">
-        <v>0.9999998074061899</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S16">
-        <v>0.9999998074061899</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T16">
-        <v>0.999999931388318</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284539304</v>
+        <v>0.99668711</v>
       </c>
       <c r="D17">
-        <v>0.9999348587541259</v>
+        <v>1.0132515</v>
       </c>
       <c r="E17">
-        <v>1.000016284539304</v>
+        <v>0.99668711</v>
       </c>
       <c r="F17">
-        <v>1.000016284539304</v>
+        <v>1.0132515</v>
       </c>
       <c r="G17">
-        <v>1.000043427651147</v>
+        <v>0.99668711</v>
       </c>
       <c r="H17">
-        <v>0.9999641717090894</v>
+        <v>0.99668711</v>
       </c>
       <c r="I17">
-        <v>1.000016284539304</v>
+        <v>0.99116564</v>
       </c>
       <c r="J17">
-        <v>0.9999348587541259</v>
+        <v>1.0072883</v>
       </c>
       <c r="K17">
-        <v>1.000016284539304</v>
+        <v>0.99668711</v>
       </c>
       <c r="L17">
-        <v>1.000016284539304</v>
+        <v>0.99668711</v>
       </c>
       <c r="M17">
-        <v>0.999975571646715</v>
+        <v>1.004969305</v>
       </c>
       <c r="N17">
-        <v>0.999975571646715</v>
+        <v>1.004969305</v>
       </c>
       <c r="O17">
-        <v>0.9999717716675064</v>
+        <v>1.005742303333333</v>
       </c>
       <c r="P17">
-        <v>0.9999891426109114</v>
+        <v>1.002208573333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999891426109114</v>
+        <v>1.002208573333333</v>
       </c>
       <c r="R17">
-        <v>0.9999959280930096</v>
+        <v>1.0008282075</v>
       </c>
       <c r="S17">
-        <v>0.9999959280930096</v>
+        <v>1.0008282075</v>
       </c>
       <c r="T17">
-        <v>0.9999985519553792</v>
+        <v>1.000294461666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334905025</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="D18">
-        <v>0.9997706596311844</v>
+        <v>0.9828084010958902</v>
       </c>
       <c r="E18">
-        <v>1.000057334905025</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="F18">
-        <v>1.000057334905025</v>
+        <v>0.9828084010958902</v>
       </c>
       <c r="G18">
-        <v>1.000152895557686</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="H18">
-        <v>0.9998738610466495</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="I18">
-        <v>1.000057334905025</v>
+        <v>1.011461073972603</v>
       </c>
       <c r="J18">
-        <v>0.9997706596311844</v>
+        <v>0.9905446205479455</v>
       </c>
       <c r="K18">
-        <v>1.000057334905025</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="L18">
-        <v>1.000057334905025</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="M18">
-        <v>0.9999139972681046</v>
+        <v>0.9935531471232879</v>
       </c>
       <c r="N18">
-        <v>0.9999139972681046</v>
+        <v>0.9935531471232879</v>
       </c>
       <c r="O18">
-        <v>0.9999006185276196</v>
+        <v>0.9925503049315071</v>
       </c>
       <c r="P18">
-        <v>0.9999617764804114</v>
+        <v>0.9971347291324205</v>
       </c>
       <c r="Q18">
-        <v>0.9999617764804114</v>
+        <v>0.9971347291324205</v>
       </c>
       <c r="R18">
-        <v>0.9999856660865647</v>
+        <v>0.9989255201369868</v>
       </c>
       <c r="S18">
-        <v>0.9999856660865647</v>
+        <v>0.9989255201369868</v>
       </c>
       <c r="T18">
-        <v>0.9999949034917658</v>
+        <v>0.9996179625114158</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134319885843</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="D19">
-        <v>0.9994627189113763</v>
+        <v>0.9922334215789474</v>
       </c>
       <c r="E19">
-        <v>1.000134319885843</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="F19">
-        <v>1.000134319885843</v>
+        <v>0.9922334215789474</v>
       </c>
       <c r="G19">
-        <v>1.00035818380463</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="H19">
-        <v>0.9997044899509185</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="I19">
-        <v>1.000134319885843</v>
+        <v>1.005177716842105</v>
       </c>
       <c r="J19">
-        <v>0.9994627189113763</v>
+        <v>0.995728382105263</v>
       </c>
       <c r="K19">
-        <v>1.000134319885843</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="L19">
-        <v>1.000134319885843</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="M19">
-        <v>0.9997985193986098</v>
+        <v>0.9970875355263158</v>
       </c>
       <c r="N19">
-        <v>0.9997985193986098</v>
+        <v>0.9970875355263158</v>
       </c>
       <c r="O19">
-        <v>0.9997671762493794</v>
+        <v>0.9966344843859649</v>
       </c>
       <c r="P19">
-        <v>0.9999104528943542</v>
+        <v>0.9987055735087719</v>
       </c>
       <c r="Q19">
-        <v>0.9999104528943542</v>
+        <v>0.9987055735087719</v>
       </c>
       <c r="R19">
-        <v>0.9999664196422264</v>
+        <v>0.9995145925</v>
       </c>
       <c r="S19">
-        <v>0.9999664196422264</v>
+        <v>0.9995145925</v>
       </c>
       <c r="T19">
-        <v>0.9999880587207425</v>
+        <v>0.999827411491228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="D20">
+        <v>0.9922336136842104</v>
+      </c>
+      <c r="E20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="F20">
+        <v>0.9922336136842104</v>
+      </c>
+      <c r="G20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="H20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="I20">
+        <v>1.005177594210526</v>
+      </c>
+      <c r="J20">
+        <v>0.9957284857894737</v>
+      </c>
+      <c r="K20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="L20">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="M20">
+        <v>0.9970876036842102</v>
+      </c>
+      <c r="N20">
+        <v>0.9970876036842102</v>
+      </c>
+      <c r="O20">
+        <v>0.9966345643859648</v>
+      </c>
+      <c r="P20">
+        <v>0.9987056003508769</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987056003508769</v>
+      </c>
+      <c r="R20">
+        <v>0.9995145986842102</v>
+      </c>
+      <c r="S20">
+        <v>0.9995145986842102</v>
+      </c>
+      <c r="T20">
+        <v>0.9998274124561402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="D21">
+        <v>1.006007490867104</v>
+      </c>
+      <c r="E21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="F21">
+        <v>1.006007490867104</v>
+      </c>
+      <c r="G21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="H21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="I21">
+        <v>0.9959950108599505</v>
+      </c>
+      <c r="J21">
+        <v>1.00330411473018</v>
+      </c>
+      <c r="K21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="L21">
+        <v>0.9984981356332555</v>
+      </c>
+      <c r="M21">
+        <v>1.00225281325018</v>
+      </c>
+      <c r="N21">
+        <v>1.00225281325018</v>
+      </c>
+      <c r="O21">
+        <v>1.002603247076847</v>
+      </c>
+      <c r="P21">
+        <v>1.001001254044538</v>
+      </c>
+      <c r="Q21">
+        <v>1.001001254044538</v>
+      </c>
+      <c r="R21">
+        <v>1.000375474441718</v>
+      </c>
+      <c r="S21">
+        <v>1.000375474441718</v>
+      </c>
+      <c r="T21">
+        <v>1.000133503892833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="D22">
+        <v>1.001551060553058</v>
+      </c>
+      <c r="E22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="F22">
+        <v>1.001551060553058</v>
+      </c>
+      <c r="G22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="H22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="I22">
+        <v>0.9989659596189684</v>
+      </c>
+      <c r="J22">
+        <v>1.000853086972874</v>
+      </c>
+      <c r="K22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="L22">
+        <v>0.9996122291325652</v>
+      </c>
+      <c r="M22">
+        <v>1.000581644842812</v>
+      </c>
+      <c r="N22">
+        <v>1.000581644842812</v>
+      </c>
+      <c r="O22">
+        <v>1.000672125552833</v>
+      </c>
+      <c r="P22">
+        <v>1.00025850627273</v>
+      </c>
+      <c r="Q22">
+        <v>1.00025850627273</v>
+      </c>
+      <c r="R22">
+        <v>1.000096936987688</v>
+      </c>
+      <c r="S22">
+        <v>1.000096936987688</v>
+      </c>
+      <c r="T22">
+        <v>1.0000344657571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="D23">
+        <v>1.006007798933863</v>
+      </c>
+      <c r="E23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="F23">
+        <v>1.006007798933863</v>
+      </c>
+      <c r="G23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="H23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="I23">
+        <v>0.9959947961708796</v>
+      </c>
+      <c r="J23">
+        <v>1.003304289263805</v>
+      </c>
+      <c r="K23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="L23">
+        <v>0.9984980511806822</v>
+      </c>
+      <c r="M23">
+        <v>1.002252925057273</v>
+      </c>
+      <c r="N23">
+        <v>1.002252925057273</v>
+      </c>
+      <c r="O23">
+        <v>1.002603379792784</v>
+      </c>
+      <c r="P23">
+        <v>1.001001300431743</v>
+      </c>
+      <c r="Q23">
+        <v>1.001001300431743</v>
+      </c>
+      <c r="R23">
+        <v>1.000375488118978</v>
+      </c>
+      <c r="S23">
+        <v>1.000375488118978</v>
+      </c>
+      <c r="T23">
+        <v>1.000133506318433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="D24">
+        <v>1.001551139753336</v>
+      </c>
+      <c r="E24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="F24">
+        <v>1.001551139753336</v>
+      </c>
+      <c r="G24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="H24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="I24">
+        <v>0.9989659102351678</v>
+      </c>
+      <c r="J24">
+        <v>1.000853126423775</v>
+      </c>
+      <c r="K24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="L24">
+        <v>0.9996122202395928</v>
+      </c>
+      <c r="M24">
+        <v>1.000581679996464</v>
+      </c>
+      <c r="N24">
+        <v>1.000581679996464</v>
+      </c>
+      <c r="O24">
+        <v>1.000672162138901</v>
+      </c>
+      <c r="P24">
+        <v>1.000258526744174</v>
+      </c>
+      <c r="Q24">
+        <v>1.000258526744174</v>
+      </c>
+      <c r="R24">
+        <v>1.000096950118029</v>
+      </c>
+      <c r="S24">
+        <v>1.000096950118029</v>
+      </c>
+      <c r="T24">
+        <v>1.000034472855176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="D25">
+        <v>1.006008022287942</v>
+      </c>
+      <c r="E25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="F25">
+        <v>1.006008022287942</v>
+      </c>
+      <c r="G25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="H25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="I25">
+        <v>0.9959946652856686</v>
+      </c>
+      <c r="J25">
+        <v>1.003304412347519</v>
+      </c>
+      <c r="K25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="L25">
+        <v>0.9984980074003927</v>
+      </c>
+      <c r="M25">
+        <v>1.002253014844167</v>
+      </c>
+      <c r="N25">
+        <v>1.002253014844167</v>
+      </c>
+      <c r="O25">
+        <v>1.002603480678618</v>
+      </c>
+      <c r="P25">
+        <v>1.001001345696243</v>
+      </c>
+      <c r="Q25">
+        <v>1.001001345696243</v>
+      </c>
+      <c r="R25">
+        <v>1.00037551112228</v>
+      </c>
+      <c r="S25">
+        <v>1.00037551112228</v>
+      </c>
+      <c r="T25">
+        <v>1.000133520353718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="D26">
+        <v>1.00155120133963</v>
+      </c>
+      <c r="E26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="F26">
+        <v>1.00155120133963</v>
+      </c>
+      <c r="G26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="H26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="I26">
+        <v>0.998965865473175</v>
+      </c>
+      <c r="J26">
+        <v>1.00085315091472</v>
+      </c>
+      <c r="K26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="L26">
+        <v>0.9996121978274723</v>
+      </c>
+      <c r="M26">
+        <v>1.000581699583551</v>
+      </c>
+      <c r="N26">
+        <v>1.000581699583551</v>
+      </c>
+      <c r="O26">
+        <v>1.000672183360608</v>
+      </c>
+      <c r="P26">
+        <v>1.000258532331525</v>
+      </c>
+      <c r="Q26">
+        <v>1.000258532331525</v>
+      </c>
+      <c r="R26">
+        <v>1.000096948705512</v>
+      </c>
+      <c r="S26">
+        <v>1.000096948705512</v>
+      </c>
+      <c r="T26">
+        <v>1.00003446853499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="D27">
+        <v>0.9972676719280373</v>
+      </c>
+      <c r="E27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="F27">
+        <v>0.9972676719280373</v>
+      </c>
+      <c r="G27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="H27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="I27">
+        <v>1.001821540354791</v>
+      </c>
+      <c r="J27">
+        <v>0.9984972161174076</v>
+      </c>
+      <c r="K27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="L27">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="M27">
+        <v>0.9989753729860542</v>
+      </c>
+      <c r="N27">
+        <v>0.9989753729860542</v>
+      </c>
+      <c r="O27">
+        <v>0.998815987363172</v>
+      </c>
+      <c r="P27">
+        <v>0.9995446066720598</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995446066720598</v>
+      </c>
+      <c r="R27">
+        <v>0.9998292235150625</v>
+      </c>
+      <c r="S27">
+        <v>0.9998292235150625</v>
+      </c>
+      <c r="T27">
+        <v>0.9999392750887415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="D28">
+        <v>1.000473938546345</v>
+      </c>
+      <c r="E28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="F28">
+        <v>1.000473938546345</v>
+      </c>
+      <c r="G28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="H28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="I28">
+        <v>0.9996840327011024</v>
+      </c>
+      <c r="J28">
+        <v>1.000260658066836</v>
+      </c>
+      <c r="K28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="L28">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="M28">
+        <v>1.000177727857982</v>
+      </c>
+      <c r="N28">
+        <v>1.000177727857982</v>
+      </c>
+      <c r="O28">
+        <v>1.000205371260934</v>
+      </c>
+      <c r="P28">
+        <v>1.000078990961862</v>
+      </c>
+      <c r="Q28">
+        <v>1.000078990961862</v>
+      </c>
+      <c r="R28">
+        <v>1.000029622513801</v>
+      </c>
+      <c r="S28">
+        <v>1.000029622513801</v>
+      </c>
+      <c r="T28">
+        <v>1.00001053013719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="D29">
+        <v>1.008815670458461</v>
+      </c>
+      <c r="E29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="F29">
+        <v>1.008815670458461</v>
+      </c>
+      <c r="G29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="H29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="I29">
+        <v>0.9941228752187132</v>
+      </c>
+      <c r="J29">
+        <v>1.004848608592167</v>
+      </c>
+      <c r="K29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="L29">
+        <v>0.9977960798393607</v>
+      </c>
+      <c r="M29">
+        <v>1.003305875148911</v>
+      </c>
+      <c r="N29">
+        <v>1.003305875148911</v>
+      </c>
+      <c r="O29">
+        <v>1.003820119629997</v>
+      </c>
+      <c r="P29">
+        <v>1.001469276712394</v>
+      </c>
+      <c r="Q29">
+        <v>1.001469276712394</v>
+      </c>
+      <c r="R29">
+        <v>1.000550977494136</v>
+      </c>
+      <c r="S29">
+        <v>1.000550977494136</v>
+      </c>
+      <c r="T29">
+        <v>1.000195898964571</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="D4">
-        <v>0.9975515061592611</v>
+        <v>0.9934629611357327</v>
       </c>
       <c r="E4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="F4">
-        <v>0.9975515061592611</v>
+        <v>0.9934629611357327</v>
       </c>
       <c r="G4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="H4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="I4">
-        <v>1.001632331258286</v>
+        <v>1.004358026082893</v>
       </c>
       <c r="J4">
-        <v>0.9986533283472304</v>
+        <v>0.9964046282316398</v>
       </c>
       <c r="K4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="L4">
-        <v>1.000612122815429</v>
+        <v>1.001634263994456</v>
       </c>
       <c r="M4">
-        <v>0.9990818144873452</v>
+        <v>0.9975486125650943</v>
       </c>
       <c r="N4">
-        <v>0.9990818144873452</v>
+        <v>0.9975486125650943</v>
       </c>
       <c r="O4">
-        <v>0.9989389857739736</v>
+        <v>0.9971672844539428</v>
       </c>
       <c r="P4">
-        <v>0.9995919172633733</v>
+        <v>0.9989104963748815</v>
       </c>
       <c r="Q4">
-        <v>0.9995919172633733</v>
+        <v>0.9989104963748815</v>
       </c>
       <c r="R4">
-        <v>0.9998469686513872</v>
+        <v>0.999591438279775</v>
       </c>
       <c r="S4">
-        <v>0.9998469686513872</v>
+        <v>0.999591438279775</v>
       </c>
       <c r="T4">
-        <v>0.9999455890351775</v>
+        <v>0.999854734572272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="D5">
-        <v>0.9922061898270927</v>
+        <v>0.995493715611908</v>
       </c>
       <c r="E5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="F5">
-        <v>0.9922061898270927</v>
+        <v>0.995493715611908</v>
       </c>
       <c r="G5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="H5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="I5">
-        <v>1.005195873162825</v>
+        <v>1.003004196338207</v>
       </c>
       <c r="J5">
-        <v>0.9957134040634025</v>
+        <v>0.9975215417366059</v>
       </c>
       <c r="K5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="L5">
-        <v>1.001948457276658</v>
+        <v>1.001126565367507</v>
       </c>
       <c r="M5">
-        <v>0.9970773235518753</v>
+        <v>0.9983101404897077</v>
       </c>
       <c r="N5">
-        <v>0.9970773235518753</v>
+        <v>0.9983101404897077</v>
       </c>
       <c r="O5">
-        <v>0.9966226837223844</v>
+        <v>0.9980472742386738</v>
       </c>
       <c r="P5">
-        <v>0.9987010347934695</v>
+        <v>0.9992489487823075</v>
       </c>
       <c r="Q5">
-        <v>0.9987010347934695</v>
+        <v>0.9992489487823075</v>
       </c>
       <c r="R5">
-        <v>0.9995128904142666</v>
+        <v>0.9997183529286076</v>
       </c>
       <c r="S5">
-        <v>0.9995128904142666</v>
+        <v>0.9997183529286076</v>
       </c>
       <c r="T5">
-        <v>0.999826806480549</v>
+        <v>0.9998998582982073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="D6">
-        <v>0.973854455364617</v>
+        <v>0.9975515061592611</v>
       </c>
       <c r="E6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="F6">
-        <v>0.973854455364617</v>
+        <v>0.9975515061592611</v>
       </c>
       <c r="G6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="H6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="I6">
-        <v>1.017430349766881</v>
+        <v>1.001632331258286</v>
       </c>
       <c r="J6">
-        <v>0.9856199511840482</v>
+        <v>0.9986533283472304</v>
       </c>
       <c r="K6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="L6">
-        <v>1.006536408329753</v>
+        <v>1.000612122815429</v>
       </c>
       <c r="M6">
-        <v>0.9901954318471848</v>
+        <v>0.9990818144873452</v>
       </c>
       <c r="N6">
-        <v>0.9901954318471848</v>
+        <v>0.9990818144873452</v>
       </c>
       <c r="O6">
-        <v>0.9886702716261393</v>
+        <v>0.9989389857739736</v>
       </c>
       <c r="P6">
-        <v>0.9956424240080408</v>
+        <v>0.9995919172633733</v>
       </c>
       <c r="Q6">
-        <v>0.9956424240080408</v>
+        <v>0.9995919172633733</v>
       </c>
       <c r="R6">
-        <v>0.9983659200884688</v>
+        <v>0.9998469686513872</v>
       </c>
       <c r="S6">
-        <v>0.9983659200884688</v>
+        <v>0.9998469686513872</v>
       </c>
       <c r="T6">
-        <v>0.9994189968841342</v>
+        <v>0.9999455890351775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="D7">
-        <v>0.9991867129190415</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="E7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="F7">
-        <v>0.9991867129190415</v>
+        <v>0.9922061898270927</v>
       </c>
       <c r="G7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="H7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="I7">
-        <v>1.000542192137744</v>
+        <v>1.005195873162825</v>
       </c>
       <c r="J7">
-        <v>0.9995526916044192</v>
+        <v>0.9957134040634025</v>
       </c>
       <c r="K7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="L7">
-        <v>1.000203320816326</v>
+        <v>1.001948457276658</v>
       </c>
       <c r="M7">
-        <v>0.9996950168676837</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="N7">
-        <v>0.9996950168676837</v>
+        <v>0.9970773235518753</v>
       </c>
       <c r="O7">
-        <v>0.9996475751132622</v>
+        <v>0.9966226837223844</v>
       </c>
       <c r="P7">
-        <v>0.9998644515172311</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="Q7">
-        <v>0.9998644515172311</v>
+        <v>0.9987010347934695</v>
       </c>
       <c r="R7">
-        <v>0.9999491688420048</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="S7">
-        <v>0.9999491688420048</v>
+        <v>0.9995128904142666</v>
       </c>
       <c r="T7">
-        <v>0.9999819265183637</v>
+        <v>0.999826806480549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="D8">
-        <v>0.9999348587541259</v>
+        <v>0.973854455364617</v>
       </c>
       <c r="E8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="F8">
-        <v>0.9999348587541259</v>
+        <v>0.973854455364617</v>
       </c>
       <c r="G8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="H8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="I8">
-        <v>1.000043427651147</v>
+        <v>1.017430349766881</v>
       </c>
       <c r="J8">
-        <v>0.9999641717090894</v>
+        <v>0.9856199511840482</v>
       </c>
       <c r="K8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="L8">
-        <v>1.000016284539304</v>
+        <v>1.006536408329753</v>
       </c>
       <c r="M8">
-        <v>0.999975571646715</v>
+        <v>0.9901954318471848</v>
       </c>
       <c r="N8">
-        <v>0.999975571646715</v>
+        <v>0.9901954318471848</v>
       </c>
       <c r="O8">
-        <v>0.9999717716675064</v>
+        <v>0.9886702716261393</v>
       </c>
       <c r="P8">
-        <v>0.9999891426109114</v>
+        <v>0.9956424240080408</v>
       </c>
       <c r="Q8">
-        <v>0.9999891426109114</v>
+        <v>0.9956424240080408</v>
       </c>
       <c r="R8">
-        <v>0.9999959280930096</v>
+        <v>0.9983659200884688</v>
       </c>
       <c r="S8">
-        <v>0.9999959280930096</v>
+        <v>0.9983659200884688</v>
       </c>
       <c r="T8">
-        <v>0.9999985519553792</v>
+        <v>0.9994189968841342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="D9">
-        <v>0.9985620152088167</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="E9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="F9">
-        <v>0.9985620152088167</v>
+        <v>0.9991867129190415</v>
       </c>
       <c r="G9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="H9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="I9">
-        <v>1.000958657193137</v>
+        <v>1.000542192137744</v>
       </c>
       <c r="J9">
-        <v>0.9992091083749851</v>
+        <v>0.9995526916044192</v>
       </c>
       <c r="K9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="L9">
-        <v>1.000359494649805</v>
+        <v>1.000203320816326</v>
       </c>
       <c r="M9">
-        <v>0.9994607549293111</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="N9">
-        <v>0.9994607549293111</v>
+        <v>0.9996950168676837</v>
       </c>
       <c r="O9">
-        <v>0.9993768727445357</v>
+        <v>0.9996475751132622</v>
       </c>
       <c r="P9">
-        <v>0.9997603348361425</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="Q9">
-        <v>0.9997603348361425</v>
+        <v>0.9998644515172311</v>
       </c>
       <c r="R9">
-        <v>0.9999101247895581</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="S9">
-        <v>0.9999101247895581</v>
+        <v>0.9999491688420048</v>
       </c>
       <c r="T9">
-        <v>0.9999680441210591</v>
+        <v>0.9999819265183637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="D10">
-        <v>0.9734653174187406</v>
+        <v>0.9999348587541259</v>
       </c>
       <c r="E10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="F10">
-        <v>0.9734653174187406</v>
+        <v>0.9999348587541259</v>
       </c>
       <c r="G10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="H10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="I10">
-        <v>1.017689775021464</v>
+        <v>1.000043427651147</v>
       </c>
       <c r="J10">
-        <v>0.9854059253423578</v>
+        <v>0.9999641717090894</v>
       </c>
       <c r="K10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="L10">
-        <v>1.00663369472437</v>
+        <v>1.000016284539304</v>
       </c>
       <c r="M10">
-        <v>0.9900495060715553</v>
+        <v>0.999975571646715</v>
       </c>
       <c r="N10">
-        <v>0.9900495060715553</v>
+        <v>0.999975571646715</v>
       </c>
       <c r="O10">
-        <v>0.9885016458284895</v>
+        <v>0.9999717716675064</v>
       </c>
       <c r="P10">
-        <v>0.9955775689558268</v>
+        <v>0.9999891426109114</v>
       </c>
       <c r="Q10">
-        <v>0.9955775689558268</v>
+        <v>0.9999891426109114</v>
       </c>
       <c r="R10">
-        <v>0.9983416003979626</v>
+        <v>0.9999959280930096</v>
       </c>
       <c r="S10">
-        <v>0.9983416003979626</v>
+        <v>0.9999959280930096</v>
       </c>
       <c r="T10">
-        <v>0.9994103503259453</v>
+        <v>0.9999985519553792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="D11">
-        <v>0.9976918217413189</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="E11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="F11">
-        <v>0.9976918217413189</v>
+        <v>0.9985620152088167</v>
       </c>
       <c r="G11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="H11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="I11">
-        <v>1.001538787424128</v>
+        <v>1.000958657193137</v>
       </c>
       <c r="J11">
-        <v>0.9987305016096079</v>
+        <v>0.9992091083749851</v>
       </c>
       <c r="K11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="L11">
-        <v>1.000577042691797</v>
+        <v>1.000359494649805</v>
       </c>
       <c r="M11">
-        <v>0.9991344322165578</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="N11">
-        <v>0.9991344322165578</v>
+        <v>0.9994607549293111</v>
       </c>
       <c r="O11">
-        <v>0.9989997886809078</v>
+        <v>0.9993768727445357</v>
       </c>
       <c r="P11">
-        <v>0.9996153023749708</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="Q11">
-        <v>0.9996153023749708</v>
+        <v>0.9997603348361425</v>
       </c>
       <c r="R11">
-        <v>0.9998557374541772</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="S11">
-        <v>0.9998557374541772</v>
+        <v>0.9999101247895581</v>
       </c>
       <c r="T11">
-        <v>0.9999487064750742</v>
+        <v>0.9999680441210591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="D12">
-        <v>0.9920372764736873</v>
+        <v>0.9734653174187406</v>
       </c>
       <c r="E12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="F12">
-        <v>0.9920372764736873</v>
+        <v>0.9734653174187406</v>
       </c>
       <c r="G12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="H12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="I12">
-        <v>1.005308481526316</v>
+        <v>1.017689775021464</v>
       </c>
       <c r="J12">
-        <v>0.9956205014842092</v>
+        <v>0.9854059253423578</v>
       </c>
       <c r="K12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="L12">
-        <v>1.001990689842106</v>
+        <v>1.00663369472437</v>
       </c>
       <c r="M12">
-        <v>0.9970139831578966</v>
+        <v>0.9900495060715553</v>
       </c>
       <c r="N12">
-        <v>0.9970139831578966</v>
+        <v>0.9900495060715553</v>
       </c>
       <c r="O12">
-        <v>0.9965494892666674</v>
+        <v>0.9885016458284895</v>
       </c>
       <c r="P12">
-        <v>0.9986728853859663</v>
+        <v>0.9955775689558268</v>
       </c>
       <c r="Q12">
-        <v>0.9986728853859663</v>
+        <v>0.9955775689558268</v>
       </c>
       <c r="R12">
-        <v>0.9995023365000012</v>
+        <v>0.9983416003979626</v>
       </c>
       <c r="S12">
-        <v>0.9995023365000012</v>
+        <v>0.9983416003979626</v>
       </c>
       <c r="T12">
-        <v>0.9998230548350883</v>
+        <v>0.9994103503259453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="D13">
-        <v>1.005218680610642</v>
+        <v>0.9976918217413189</v>
       </c>
       <c r="E13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="F13">
-        <v>1.005218680610642</v>
+        <v>0.9976918217413189</v>
       </c>
       <c r="G13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="H13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="I13">
-        <v>0.996520879895196</v>
+        <v>1.001538787424128</v>
       </c>
       <c r="J13">
-        <v>1.002870273197885</v>
+        <v>0.9987305016096079</v>
       </c>
       <c r="K13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="L13">
-        <v>0.9986953321172375</v>
+        <v>1.000577042691797</v>
       </c>
       <c r="M13">
-        <v>1.00195700636394</v>
+        <v>0.9991344322165578</v>
       </c>
       <c r="N13">
-        <v>1.00195700636394</v>
+        <v>0.9991344322165578</v>
       </c>
       <c r="O13">
-        <v>1.002261428641922</v>
+        <v>0.9989997886809078</v>
       </c>
       <c r="P13">
-        <v>1.000869781615039</v>
+        <v>0.9996153023749708</v>
       </c>
       <c r="Q13">
-        <v>1.000869781615039</v>
+        <v>0.9996153023749708</v>
       </c>
       <c r="R13">
-        <v>1.000326169240589</v>
+        <v>0.9998557374541772</v>
       </c>
       <c r="S13">
-        <v>1.000326169240589</v>
+        <v>0.9998557374541772</v>
       </c>
       <c r="T13">
-        <v>1.000115971675906</v>
+        <v>0.9999487064750742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="D14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372764736873</v>
       </c>
       <c r="E14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="F14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372764736873</v>
       </c>
       <c r="G14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="H14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="I14">
-        <v>1.030562799999999</v>
+        <v>1.005308481526316</v>
       </c>
       <c r="J14">
-        <v>0.9747856700000013</v>
+        <v>0.9956205014842092</v>
       </c>
       <c r="K14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="L14">
-        <v>1.011461099999999</v>
+        <v>1.001990689842106</v>
       </c>
       <c r="M14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139831578966</v>
       </c>
       <c r="N14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139831578966</v>
       </c>
       <c r="O14">
-        <v>0.9801341766666667</v>
+        <v>0.9965494892666674</v>
       </c>
       <c r="P14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728853859663</v>
       </c>
       <c r="Q14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728853859663</v>
       </c>
       <c r="R14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023365000012</v>
       </c>
       <c r="S14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023365000012</v>
       </c>
       <c r="T14">
-        <v>0.9989812549999996</v>
+        <v>0.9998230548350883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="D15">
-        <v>0.9828078599999999</v>
+        <v>1.005218680610642</v>
       </c>
       <c r="E15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="F15">
-        <v>0.9828078599999999</v>
+        <v>1.005218680610642</v>
       </c>
       <c r="G15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="H15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="I15">
-        <v>1.0114614</v>
+        <v>0.996520879895196</v>
       </c>
       <c r="J15">
-        <v>0.99054432</v>
+        <v>1.002870273197885</v>
       </c>
       <c r="K15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="L15">
-        <v>1.004298</v>
+        <v>0.9986953321172375</v>
       </c>
       <c r="M15">
-        <v>0.9935529299999999</v>
+        <v>1.00195700636394</v>
       </c>
       <c r="N15">
-        <v>0.9935529299999999</v>
+        <v>1.00195700636394</v>
       </c>
       <c r="O15">
-        <v>0.99255006</v>
+        <v>1.002261428641922</v>
       </c>
       <c r="P15">
-        <v>0.9971346199999999</v>
+        <v>1.000869781615039</v>
       </c>
       <c r="Q15">
-        <v>0.9971346199999999</v>
+        <v>1.000869781615039</v>
       </c>
       <c r="R15">
-        <v>0.9989254649999999</v>
+        <v>1.000326169240589</v>
       </c>
       <c r="S15">
-        <v>0.9989254649999999</v>
+        <v>1.000326169240589</v>
       </c>
       <c r="T15">
-        <v>0.99961793</v>
+        <v>1.000115971675906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D16">
-        <v>0.98280841</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="E16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="F16">
-        <v>0.98280841</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="G16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="I16">
-        <v>1.0114611</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="J16">
-        <v>0.99054463</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="K16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L16">
-        <v>1.0042979</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M16">
-        <v>0.9935531550000001</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N16">
-        <v>0.9935531550000001</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O16">
-        <v>0.9925503133333334</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P16">
-        <v>0.9971347366666667</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q16">
-        <v>0.9971347366666667</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R16">
-        <v>0.9989255275000001</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S16">
-        <v>0.9989255275000001</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T16">
-        <v>0.9996179733333334</v>
+        <v>0.9989812549999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="D17">
-        <v>1.0132515</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="E17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="F17">
-        <v>1.0132515</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="G17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="H17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="I17">
-        <v>0.99116564</v>
+        <v>1.0114614</v>
       </c>
       <c r="J17">
-        <v>1.0072883</v>
+        <v>0.99054432</v>
       </c>
       <c r="K17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="L17">
-        <v>0.99668711</v>
+        <v>1.004298</v>
       </c>
       <c r="M17">
-        <v>1.004969305</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="N17">
-        <v>1.004969305</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="O17">
-        <v>1.005742303333333</v>
+        <v>0.99255006</v>
       </c>
       <c r="P17">
-        <v>1.002208573333333</v>
+        <v>0.9971346199999999</v>
       </c>
       <c r="Q17">
-        <v>1.002208573333333</v>
+        <v>0.9971346199999999</v>
       </c>
       <c r="R17">
-        <v>1.0008282075</v>
+        <v>0.9989254649999999</v>
       </c>
       <c r="S17">
-        <v>1.0008282075</v>
+        <v>0.9989254649999999</v>
       </c>
       <c r="T17">
-        <v>1.000294461666667</v>
+        <v>0.99961793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="D18">
-        <v>0.9828084010958902</v>
+        <v>0.98280841</v>
       </c>
       <c r="E18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="F18">
-        <v>0.9828084010958902</v>
+        <v>0.98280841</v>
       </c>
       <c r="G18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="H18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="I18">
-        <v>1.011461073972603</v>
+        <v>1.0114611</v>
       </c>
       <c r="J18">
-        <v>0.9905446205479455</v>
+        <v>0.99054463</v>
       </c>
       <c r="K18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="L18">
-        <v>1.004297893150686</v>
+        <v>1.0042979</v>
       </c>
       <c r="M18">
-        <v>0.9935531471232879</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N18">
-        <v>0.9935531471232879</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O18">
-        <v>0.9925503049315071</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P18">
-        <v>0.9971347291324205</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q18">
-        <v>0.9971347291324205</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R18">
-        <v>0.9989255201369868</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S18">
-        <v>0.9989255201369868</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T18">
-        <v>0.9996179625114158</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="D19">
-        <v>0.9922334215789474</v>
+        <v>1.0132515</v>
       </c>
       <c r="E19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="F19">
-        <v>0.9922334215789474</v>
+        <v>1.0132515</v>
       </c>
       <c r="G19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="H19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="I19">
-        <v>1.005177716842105</v>
+        <v>0.99116564</v>
       </c>
       <c r="J19">
-        <v>0.995728382105263</v>
+        <v>1.0072883</v>
       </c>
       <c r="K19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="L19">
-        <v>1.001941649473684</v>
+        <v>0.99668711</v>
       </c>
       <c r="M19">
-        <v>0.9970875355263158</v>
+        <v>1.004969305</v>
       </c>
       <c r="N19">
-        <v>0.9970875355263158</v>
+        <v>1.004969305</v>
       </c>
       <c r="O19">
-        <v>0.9966344843859649</v>
+        <v>1.005742303333333</v>
       </c>
       <c r="P19">
-        <v>0.9987055735087719</v>
+        <v>1.002208573333333</v>
       </c>
       <c r="Q19">
-        <v>0.9987055735087719</v>
+        <v>1.002208573333333</v>
       </c>
       <c r="R19">
-        <v>0.9995145925</v>
+        <v>1.0008282075</v>
       </c>
       <c r="S19">
-        <v>0.9995145925</v>
+        <v>1.0008282075</v>
       </c>
       <c r="T19">
-        <v>0.999827411491228</v>
+        <v>1.000294461666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="D20">
-        <v>0.9922336136842104</v>
+        <v>0.9828084010958902</v>
       </c>
       <c r="E20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="F20">
-        <v>0.9922336136842104</v>
+        <v>0.9828084010958902</v>
       </c>
       <c r="G20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="H20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="I20">
-        <v>1.005177594210526</v>
+        <v>1.011461073972603</v>
       </c>
       <c r="J20">
-        <v>0.9957284857894737</v>
+        <v>0.9905446205479455</v>
       </c>
       <c r="K20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="L20">
-        <v>1.00194159368421</v>
+        <v>1.004297893150686</v>
       </c>
       <c r="M20">
-        <v>0.9970876036842102</v>
+        <v>0.9935531471232879</v>
       </c>
       <c r="N20">
-        <v>0.9970876036842102</v>
+        <v>0.9935531471232879</v>
       </c>
       <c r="O20">
-        <v>0.9966345643859648</v>
+        <v>0.9925503049315071</v>
       </c>
       <c r="P20">
-        <v>0.9987056003508769</v>
+        <v>0.9971347291324205</v>
       </c>
       <c r="Q20">
-        <v>0.9987056003508769</v>
+        <v>0.9971347291324205</v>
       </c>
       <c r="R20">
-        <v>0.9995145986842102</v>
+        <v>0.9989255201369868</v>
       </c>
       <c r="S20">
-        <v>0.9995145986842102</v>
+        <v>0.9989255201369868</v>
       </c>
       <c r="T20">
-        <v>0.9998274124561402</v>
+        <v>0.9996179625114158</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="D21">
-        <v>1.006007490867104</v>
+        <v>0.9922334215789474</v>
       </c>
       <c r="E21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="F21">
-        <v>1.006007490867104</v>
+        <v>0.9922334215789474</v>
       </c>
       <c r="G21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="H21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="I21">
-        <v>0.9959950108599505</v>
+        <v>1.005177716842105</v>
       </c>
       <c r="J21">
-        <v>1.00330411473018</v>
+        <v>0.995728382105263</v>
       </c>
       <c r="K21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="L21">
-        <v>0.9984981356332555</v>
+        <v>1.001941649473684</v>
       </c>
       <c r="M21">
-        <v>1.00225281325018</v>
+        <v>0.9970875355263158</v>
       </c>
       <c r="N21">
-        <v>1.00225281325018</v>
+        <v>0.9970875355263158</v>
       </c>
       <c r="O21">
-        <v>1.002603247076847</v>
+        <v>0.9966344843859649</v>
       </c>
       <c r="P21">
-        <v>1.001001254044538</v>
+        <v>0.9987055735087719</v>
       </c>
       <c r="Q21">
-        <v>1.001001254044538</v>
+        <v>0.9987055735087719</v>
       </c>
       <c r="R21">
-        <v>1.000375474441718</v>
+        <v>0.9995145925</v>
       </c>
       <c r="S21">
-        <v>1.000375474441718</v>
+        <v>0.9995145925</v>
       </c>
       <c r="T21">
-        <v>1.000133503892833</v>
+        <v>0.999827411491228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="D22">
-        <v>1.001551060553058</v>
+        <v>0.9922336136842104</v>
       </c>
       <c r="E22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="F22">
-        <v>1.001551060553058</v>
+        <v>0.9922336136842104</v>
       </c>
       <c r="G22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="H22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="I22">
-        <v>0.9989659596189684</v>
+        <v>1.005177594210526</v>
       </c>
       <c r="J22">
-        <v>1.000853086972874</v>
+        <v>0.9957284857894737</v>
       </c>
       <c r="K22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="L22">
-        <v>0.9996122291325652</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="M22">
-        <v>1.000581644842812</v>
+        <v>0.9970876036842102</v>
       </c>
       <c r="N22">
-        <v>1.000581644842812</v>
+        <v>0.9970876036842102</v>
       </c>
       <c r="O22">
-        <v>1.000672125552833</v>
+        <v>0.9966345643859648</v>
       </c>
       <c r="P22">
-        <v>1.00025850627273</v>
+        <v>0.9987056003508769</v>
       </c>
       <c r="Q22">
-        <v>1.00025850627273</v>
+        <v>0.9987056003508769</v>
       </c>
       <c r="R22">
-        <v>1.000096936987688</v>
+        <v>0.9995145986842102</v>
       </c>
       <c r="S22">
-        <v>1.000096936987688</v>
+        <v>0.9995145986842102</v>
       </c>
       <c r="T22">
-        <v>1.0000344657571</v>
+        <v>0.9998274124561402</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="D23">
-        <v>1.006007798933863</v>
+        <v>1.006007490867104</v>
       </c>
       <c r="E23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="F23">
-        <v>1.006007798933863</v>
+        <v>1.006007490867104</v>
       </c>
       <c r="G23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="H23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="I23">
-        <v>0.9959947961708796</v>
+        <v>0.9959950108599505</v>
       </c>
       <c r="J23">
-        <v>1.003304289263805</v>
+        <v>1.00330411473018</v>
       </c>
       <c r="K23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="L23">
-        <v>0.9984980511806822</v>
+        <v>0.9984981356332555</v>
       </c>
       <c r="M23">
-        <v>1.002252925057273</v>
+        <v>1.00225281325018</v>
       </c>
       <c r="N23">
-        <v>1.002252925057273</v>
+        <v>1.00225281325018</v>
       </c>
       <c r="O23">
-        <v>1.002603379792784</v>
+        <v>1.002603247076847</v>
       </c>
       <c r="P23">
-        <v>1.001001300431743</v>
+        <v>1.001001254044538</v>
       </c>
       <c r="Q23">
-        <v>1.001001300431743</v>
+        <v>1.001001254044538</v>
       </c>
       <c r="R23">
-        <v>1.000375488118978</v>
+        <v>1.000375474441718</v>
       </c>
       <c r="S23">
-        <v>1.000375488118978</v>
+        <v>1.000375474441718</v>
       </c>
       <c r="T23">
-        <v>1.000133506318433</v>
+        <v>1.000133503892833</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="D24">
-        <v>1.001551139753336</v>
+        <v>1.001551060553058</v>
       </c>
       <c r="E24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="F24">
-        <v>1.001551139753336</v>
+        <v>1.001551060553058</v>
       </c>
       <c r="G24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="H24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="I24">
-        <v>0.9989659102351678</v>
+        <v>0.9989659596189684</v>
       </c>
       <c r="J24">
-        <v>1.000853126423775</v>
+        <v>1.000853086972874</v>
       </c>
       <c r="K24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="L24">
-        <v>0.9996122202395928</v>
+        <v>0.9996122291325652</v>
       </c>
       <c r="M24">
-        <v>1.000581679996464</v>
+        <v>1.000581644842812</v>
       </c>
       <c r="N24">
-        <v>1.000581679996464</v>
+        <v>1.000581644842812</v>
       </c>
       <c r="O24">
-        <v>1.000672162138901</v>
+        <v>1.000672125552833</v>
       </c>
       <c r="P24">
-        <v>1.000258526744174</v>
+        <v>1.00025850627273</v>
       </c>
       <c r="Q24">
-        <v>1.000258526744174</v>
+        <v>1.00025850627273</v>
       </c>
       <c r="R24">
-        <v>1.000096950118029</v>
+        <v>1.000096936987688</v>
       </c>
       <c r="S24">
-        <v>1.000096950118029</v>
+        <v>1.000096936987688</v>
       </c>
       <c r="T24">
-        <v>1.000034472855176</v>
+        <v>1.0000344657571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="D25">
-        <v>1.006008022287942</v>
+        <v>1.006007798933863</v>
       </c>
       <c r="E25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="F25">
-        <v>1.006008022287942</v>
+        <v>1.006007798933863</v>
       </c>
       <c r="G25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="H25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="I25">
-        <v>0.9959946652856686</v>
+        <v>0.9959947961708796</v>
       </c>
       <c r="J25">
-        <v>1.003304412347519</v>
+        <v>1.003304289263805</v>
       </c>
       <c r="K25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="L25">
-        <v>0.9984980074003927</v>
+        <v>0.9984980511806822</v>
       </c>
       <c r="M25">
-        <v>1.002253014844167</v>
+        <v>1.002252925057273</v>
       </c>
       <c r="N25">
-        <v>1.002253014844167</v>
+        <v>1.002252925057273</v>
       </c>
       <c r="O25">
-        <v>1.002603480678618</v>
+        <v>1.002603379792784</v>
       </c>
       <c r="P25">
-        <v>1.001001345696243</v>
+        <v>1.001001300431743</v>
       </c>
       <c r="Q25">
-        <v>1.001001345696243</v>
+        <v>1.001001300431743</v>
       </c>
       <c r="R25">
-        <v>1.00037551112228</v>
+        <v>1.000375488118978</v>
       </c>
       <c r="S25">
-        <v>1.00037551112228</v>
+        <v>1.000375488118978</v>
       </c>
       <c r="T25">
-        <v>1.000133520353718</v>
+        <v>1.000133506318433</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="D26">
-        <v>1.00155120133963</v>
+        <v>1.001551139753336</v>
       </c>
       <c r="E26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="F26">
-        <v>1.00155120133963</v>
+        <v>1.001551139753336</v>
       </c>
       <c r="G26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="H26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="I26">
-        <v>0.998965865473175</v>
+        <v>0.9989659102351678</v>
       </c>
       <c r="J26">
-        <v>1.00085315091472</v>
+        <v>1.000853126423775</v>
       </c>
       <c r="K26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="L26">
-        <v>0.9996121978274723</v>
+        <v>0.9996122202395928</v>
       </c>
       <c r="M26">
-        <v>1.000581699583551</v>
+        <v>1.000581679996464</v>
       </c>
       <c r="N26">
-        <v>1.000581699583551</v>
+        <v>1.000581679996464</v>
       </c>
       <c r="O26">
-        <v>1.000672183360608</v>
+        <v>1.000672162138901</v>
       </c>
       <c r="P26">
-        <v>1.000258532331525</v>
+        <v>1.000258526744174</v>
       </c>
       <c r="Q26">
-        <v>1.000258532331525</v>
+        <v>1.000258526744174</v>
       </c>
       <c r="R26">
-        <v>1.000096948705512</v>
+        <v>1.000096950118029</v>
       </c>
       <c r="S26">
-        <v>1.000096948705512</v>
+        <v>1.000096950118029</v>
       </c>
       <c r="T26">
-        <v>1.00003446853499</v>
+        <v>1.000034472855176</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="D27">
-        <v>0.9972676719280373</v>
+        <v>1.006008022287942</v>
       </c>
       <c r="E27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="F27">
-        <v>0.9972676719280373</v>
+        <v>1.006008022287942</v>
       </c>
       <c r="G27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="H27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="I27">
-        <v>1.001821540354791</v>
+        <v>0.9959946652856686</v>
       </c>
       <c r="J27">
-        <v>0.9984972161174076</v>
+        <v>1.003304412347519</v>
       </c>
       <c r="K27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="L27">
-        <v>1.000683074044071</v>
+        <v>0.9984980074003927</v>
       </c>
       <c r="M27">
-        <v>0.9989753729860542</v>
+        <v>1.002253014844167</v>
       </c>
       <c r="N27">
-        <v>0.9989753729860542</v>
+        <v>1.002253014844167</v>
       </c>
       <c r="O27">
-        <v>0.998815987363172</v>
+        <v>1.002603480678618</v>
       </c>
       <c r="P27">
-        <v>0.9995446066720598</v>
+        <v>1.001001345696243</v>
       </c>
       <c r="Q27">
-        <v>0.9995446066720598</v>
+        <v>1.001001345696243</v>
       </c>
       <c r="R27">
-        <v>0.9998292235150625</v>
+        <v>1.00037551112228</v>
       </c>
       <c r="S27">
-        <v>0.9998292235150625</v>
+        <v>1.00037551112228</v>
       </c>
       <c r="T27">
-        <v>0.9999392750887415</v>
+        <v>1.000133520353718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="D28">
-        <v>1.000473938546345</v>
+        <v>1.00155120133963</v>
       </c>
       <c r="E28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="F28">
-        <v>1.000473938546345</v>
+        <v>1.00155120133963</v>
       </c>
       <c r="G28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="H28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="I28">
-        <v>0.9996840327011024</v>
+        <v>0.998965865473175</v>
       </c>
       <c r="J28">
-        <v>1.000260658066836</v>
+        <v>1.00085315091472</v>
       </c>
       <c r="K28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="L28">
-        <v>0.9998815171696201</v>
+        <v>0.9996121978274723</v>
       </c>
       <c r="M28">
-        <v>1.000177727857982</v>
+        <v>1.000581699583551</v>
       </c>
       <c r="N28">
-        <v>1.000177727857982</v>
+        <v>1.000581699583551</v>
       </c>
       <c r="O28">
-        <v>1.000205371260934</v>
+        <v>1.000672183360608</v>
       </c>
       <c r="P28">
-        <v>1.000078990961862</v>
+        <v>1.000258532331525</v>
       </c>
       <c r="Q28">
-        <v>1.000078990961862</v>
+        <v>1.000258532331525</v>
       </c>
       <c r="R28">
-        <v>1.000029622513801</v>
+        <v>1.000096948705512</v>
       </c>
       <c r="S28">
-        <v>1.000029622513801</v>
+        <v>1.000096948705512</v>
       </c>
       <c r="T28">
-        <v>1.00001053013719</v>
+        <v>1.00003446853499</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="D29">
+        <v>0.9972676719280373</v>
+      </c>
+      <c r="E29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="F29">
+        <v>0.9972676719280373</v>
+      </c>
+      <c r="G29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="H29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="I29">
+        <v>1.001821540354791</v>
+      </c>
+      <c r="J29">
+        <v>0.9984972161174076</v>
+      </c>
+      <c r="K29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="L29">
+        <v>1.000683074044071</v>
+      </c>
+      <c r="M29">
+        <v>0.9989753729860542</v>
+      </c>
+      <c r="N29">
+        <v>0.9989753729860542</v>
+      </c>
+      <c r="O29">
+        <v>0.998815987363172</v>
+      </c>
+      <c r="P29">
+        <v>0.9995446066720598</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995446066720598</v>
+      </c>
+      <c r="R29">
+        <v>0.9998292235150625</v>
+      </c>
+      <c r="S29">
+        <v>0.9998292235150625</v>
+      </c>
+      <c r="T29">
+        <v>0.9999392750887415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="D30">
+        <v>1.000473938546345</v>
+      </c>
+      <c r="E30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="F30">
+        <v>1.000473938546345</v>
+      </c>
+      <c r="G30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="H30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="I30">
+        <v>0.9996840327011024</v>
+      </c>
+      <c r="J30">
+        <v>1.000260658066836</v>
+      </c>
+      <c r="K30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="L30">
+        <v>0.9998815171696201</v>
+      </c>
+      <c r="M30">
+        <v>1.000177727857982</v>
+      </c>
+      <c r="N30">
+        <v>1.000177727857982</v>
+      </c>
+      <c r="O30">
+        <v>1.000205371260934</v>
+      </c>
+      <c r="P30">
+        <v>1.000078990961862</v>
+      </c>
+      <c r="Q30">
+        <v>1.000078990961862</v>
+      </c>
+      <c r="R30">
+        <v>1.000029622513801</v>
+      </c>
+      <c r="S30">
+        <v>1.000029622513801</v>
+      </c>
+      <c r="T30">
+        <v>1.00001053013719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.008815670458461</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.008815670458461</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9941228752187132</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.004848608592167</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9977960798393607</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.003305875148911</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.003305875148911</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003820119629997</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001469276712394</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001469276712394</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000550977494136</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000550977494136</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000195898964571</v>
       </c>
     </row>
